--- a/Texts/Сюжетные сцены/Глава 10.xlsx
+++ b/Texts/Сюжетные сцены/Глава 10.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1882">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -3115,6 +3115,2556 @@
   </si>
   <si>
     <t xml:space="preserve"> \"Îå ðïìôœéóòÿ äïáñàóûòÿ?\nÓïãäà ðïðìàœûóåòû òâïéí ëñôóúí äñôèûÿí!\nËöà-öà-öà!\"[K] Üê! Üóà èàðéòëà! Üóï...</t>
+  </si>
+  <si>
+    <t>На подходах к Скалистым Равнинам</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This must be the entrance to\n[CS:P]Amp Plains[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/D11P11A/m12a0201.ssb</t>
+  </si>
+  <si>
+    <t>32, 36, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t imagine what sort of\ncreeps would do something like this…</t>
+  </si>
+  <si>
+    <t>46, 50, 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I mean, threatening little kids\nlike those brothers really stinks.</t>
+  </si>
+  <si>
+    <t>67, 71, 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get their [CS:Z]Water\nFloat[CR] back, [hero]!</t>
+  </si>
+  <si>
+    <t>81, 85, 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, это вход на\n[CS:P]Скалистые Равнины[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я и представить себе не\nмогу, какие негодяи это сделали...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я про то, что угрожать\nмаленьким детям, таким как эти братья,\nочень отвратительно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы обязаны вернуть им\n[CS:Z]Поплавок[CR], [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, üóï âöïä îà\n[CS:P]Òëàìéòóúå Ñàâîéîú[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ é ðñåäòóàâéóû òåáå îå\níïãô, ëàëéå îåãïäÿé üóï òäåìàìé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñï óï, œóï ôãñïçàóû\níàìåîûëéí äåóÿí, óàëéí ëàë üóé áñàóûÿ,\nïœåîû ïóâñàóéóåìûîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïáÿèàîú âåñîôóû éí\n[CS:Z]Ðïðìàâïë[CR], [hero]!</t>
+  </si>
+  <si>
+    <t>Вторая попытка</t>
+  </si>
+  <si>
+    <t>SCRIPT/D11P11A/m12a0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s make it through this time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], let\'s do our best!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз у нас всё\nполучится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], выложимся на\nполную!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè ô îàò âòæ\nðïìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], âúìïçéíòÿ îà\nðïìîôý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve got to get back the [CS:Z]Water\nFloat[CR] this time!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s go back to [CS:P]Amp Plains[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P04A/m12a0302.ssb</t>
+  </si>
+  <si>
+    <t>После поражения</t>
+  </si>
+  <si>
+    <t>15, 19, 23</t>
+  </si>
+  <si>
+    <t>29, 33, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз мы достанем\n[CS:Z]Поплавок[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вернёмся на [CS:P]Скалистые\nРавнины[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè íú äïòóàîåí\n[CS:Z]Ðïðìàâïë[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåñîæíòÿ îà [CS:P]Òëàìéòóúå\nÑàâîéîú[CR]!</t>
+  </si>
+  <si>
+    <t>Вы дошли до контрольной точки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We must be getting closer to the\ndeepest part, [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know what awaits us.\nWe\'d better go really cautiously.</t>
+  </si>
+  <si>
+    <t>17, 21, 25</t>
+  </si>
+  <si>
+    <t>31, 35, 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, мы скоро дойдём до\nсамой отдалённой части этого места,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не знаю, что нас там\nждёт. Будем осторожнее.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, íú òëïñï äïêäæí äï\nòàíïê ïóäàìæîîïê œàòóé üóïãï íåòóà,\n[hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå èîàý, œóï îàò óàí\nçäæó. Áôäåí ïòóïñïçîåå.</t>
+  </si>
+  <si>
+    <t>Поражение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh, that ended badly…</t>
+  </si>
+  <si>
+    <t>10, 14, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is tougher than I thought!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is harder than expected…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This won\'t be easy…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we\'re almost there.\nLet\'s keep at it!</t>
+  </si>
+  <si>
+    <t>78, 82, 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух, это добром не\nкончилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это труднее, чем я думал!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это труднее, чем я\nожидал...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это непросто...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но мы почти дошли.\nПродолжим идти!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö, üóï äïáñïí îå\nëïîœéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óñôäîåå, œåí ÿ äôíàì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óñôäîåå, œåí ÿ\nïçéäàì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îåðñïòóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï íú ðïœóé äïšìé.\nÐñïäïìçéí éäóé!</t>
+  </si>
+  <si>
+    <t>Тем временем, в Городе Сокровищ</t>
+  </si>
+  <si>
+    <t>[CN]Meanwhile, back at Treasure Town…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/m12a0601.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, I see! That\'s what happened\nto your [CS:Z]Water Float[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What a mean thing to do!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So, [hero]\'s team is on\nthe way there right now, yes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They said they would go get it\nfor us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good for you! You can rest easy\nknowing Team [team:] is on the case!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes. That\'s true!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They once saved [CS:N]Azurill[CR] too.\nWe\'re so grateful for their help!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good day to you all. Is something\nthe matter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hello, [CS:N]Dusknoir[CR], sir! We\'re\ntalking about [CS:N]Marill[CR]\'s lost item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do you remember? We discussed\nthat very same thing here not long ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Of course.[K] I believe you\'re\nreferring to the [CS:Z]Water Float[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exactly! Exactly![K] But now there\nis more to the story…</t>
+  </si>
+  <si>
+    <t>[CN][CS:N]Kecleon[CR] explained to [CS:N]Dusknoir[CR]\n[CN]what had taken place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I see. That is terrible indeed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s hard to imagine why anyone\nwould do something so wretched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It must take some pathetic thugs\nto stoop so low.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I just couldn\'t agree more![K]\nTo be so mean spirited to children! And to\nchildren so young as these brothers!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s utterly unforgivable!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One more thing...[K] Where has\nTeam [team:] gone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They went to [CS:P]Amp Plains[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pardon?[K] Did you say [CS:P]Amp\nPlains[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But in [CS:P]Amp Plains[CR], at this time\nof year...[K] It\'s the season for…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No! This is ruinous!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [team:] is in grave\ndanger!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I must leave for [CS:P]Amp Plains[CR]\nimmediately!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?! Wait!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А, понятно! Так вот что\nслучилось с вашим [CS:Z]Поплавком[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой подлый поступок!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Значит, [hero] и\nкоманда направились туда, верно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они сказали, что помогут нам\nего вернуть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чудесно! Зная, что вашей бедой\nзанимается Команда [team:], вы можете\nспать спокойно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да. Точно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как то раз они и [CS:N]Азурилла[CR]\nспасли. Мы очень благодарны им за помощь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброго вам всем дня. Что-то\nобсуждаете?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здравствуйте, сэр [CS:N]Даскнуар[CR]!\nМы обсуждали пропавший предмет [CS:N]Марилла[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы ведь помните о нём? Мы не\nтак давно говорили о том же самом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разумеется.[K] Я полагаю, что вы\nподразумеваете [CS:Z]Поплавок[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно! Верно![K] Но у этой\nистории есть подробности...</t>
+  </si>
+  <si>
+    <t>[CN][CS:N]Кеклеон[CR] рассказал [CS:N]Даскнуару[CR]\n[CN]о произошедшем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Понятно. Это весьма ужасно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Трудно представить, по каким\nпричинам кто-то может решиться на столь\nгадкий поступок.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Насколько жалкими негодяями\nнужно быть, чтобы опуститься так низко.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я полностью согласен![K] Творить\nтакие злодейства по отношению к детям!\nИ к таким детям, как эти братья!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это абсолютно непростительно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ещё кое-что...[K]\nКуда отправилась Команда [team:]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они пошли на [CS:P]Скалистые Равнины[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что, простите?[K] Вы сказали на\n[CS:P]Скалистые Равнины[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но в это время года, на\n[CS:P]Скалистых Равнинах[CR]...[K] Наступает сезон...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нет! Они себя погубят!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команда [team:] в\nсмертельной опасности!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я незамедлительно отправляюсь\nна [CS:P]Скалистые Равнины[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?! Постойте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À, ðïîÿóîï! Óàë âïó œóï\nòìôœéìïòû ò âàšéí [CS:Z]Ðïðìàâëïí[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ðïäìúê ðïòóôðïë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàœéó, [hero] é\nëïíàîäà îàðñàâéìéòû óôäà, âåñîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé òëàèàìé, œóï ðïíïãôó îàí\nåãï âåñîôóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œôäåòîï! Èîàÿ, œóï âàšåê áåäïê\nèàîéíàåóòÿ Ëïíàîäà [team:], âú íïçåóå\nòðàóû òðïëïêîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà. Óïœîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óï ñàè ïîé é [CS:N]Àèôñéììà[CR]\nòðàòìé. Íú ïœåîû áìàãïäàñîú éí èà ðïíïþû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïãï âàí âòåí äîÿ. Œóï-óï\nïáòôçäàåóå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäñàâòóâôêóå, òüñ [CS:N]Äàòëîôàñ[CR]!\nÍú ïáòôçäàìé ðñïðàâšéê ðñåäíåó [CS:N]Íàñéììà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âåäû ðïíîéóå ï îæí? Íú îå\nóàë äàâîï ãïâïñéìé ï óïí çå òàíïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèôíååóòÿ.[K] Ÿ ðïìàãàý, œóï âú\nðïäñàèôíåâàåóå [CS:Z]Ðïðìàâïë[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï! Âåñîï![K] Îï ô üóïê\néòóïñéé åòóû ðïäñïáîïòóé...</t>
+  </si>
+  <si>
+    <t>[CN][CS:N]Ëåëìåïî[CR] ñàòòëàèàì [CS:N]Äàòëîôàñô[CR]\n[CN]ï ðñïéèïšåäšåí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïîÿóîï. Üóï âåòûíà ôçàòîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óñôäîï ðñåäòóàâéóû, ðï ëàëéí\nðñéœéîàí ëóï-óï íïçåó ñåšéóûòÿ îà òóïìû\nãàäëéê ðïòóôðïë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàòëïìûëï çàìëéíé îåãïäÿÿíé\nîôçîï áúóû, œóïáú ïðôòóéóûòÿ óàë îéèëï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïìîïòóûý òïãìàòåî![K] Óâïñéóû\nóàëéå èìïäåêòóâà ðï ïóîïšåîéý ë äåóÿí!\nÉ ë óàëéí äåóÿí, ëàë üóé áñàóûÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï àáòïìýóîï îåðñïòóéóåìûîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åþæ ëïå-œóï...[K]\nËôäà ïóðñàâéìàòû Ëïíàîäà [team:]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé ðïšìé îà [CS:P]Òëàìéòóúå Ñàâîéîú[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï, ðñïòóéóå?[K] Âú òëàèàìé îà\n[CS:P]Òëàìéòóúå Ñàâîéîú[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï â üóï âñåíÿ ãïäà, îà\n[CS:P]Òëàìéòóúö Ñàâîéîàö[CR]...[K] Îàòóôðàåó òåèïî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåó! Ïîé òåáÿ ðïãôáÿó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäà [team:] â\nòíåñóåìûîïê ïðàòîïòóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îåèàíåäìéóåìûîï ïóðñàâìÿýòû\nîà [CS:P]Òëàìéòóúå Ñàâîéîú[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?! Ðïòóïêóå!</t>
+  </si>
+  <si>
+    <t>[CN]Óåí âñåíåîåí â Ãïñïäå Òïëñïâéþ...</t>
+  </si>
+  <si>
+    <t>[CN]Тем временем в Городе Сокровищ...</t>
+  </si>
+  <si>
+    <t>Вы прибыли на Скалистую Поляну</t>
+  </si>
+  <si>
+    <t>SCRIPT/D12P41A/m12a0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urk! This is a scary place!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waah!</t>
+  </si>
+  <si>
+    <t>100, 104, 108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s incredible! It looks like\nlightning can strike this place anytime!</t>
+  </si>
+  <si>
+    <t>119, 123, 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should get away from a\nplace this harsh as fast as...[K] Huh?</t>
+  </si>
+  <si>
+    <t>138, 142, 146</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Over there!</t>
+  </si>
+  <si>
+    <t>170, 174, 178</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is that it, [hero]?\nThe [CS:Z]Water Float[CR]?</t>
+  </si>
+  <si>
+    <t>203, 207, 211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s get a closer look.</t>
+  </si>
+  <si>
+    <t>217, 221, 225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wa-waah!</t>
+  </si>
+  <si>
+    <t>305, 309, 313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why did you come here?!</t>
+  </si>
+  <si>
+    <t>Манектрик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is our territory!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s someone here![K]\nHide, [hero]!</t>
+  </si>
+  <si>
+    <t>336, 340, 344</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hee hee hee. So you\'re going to hide\nlike that?[K] That\'s kind of cute…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right. [K]We\'d actually be grateful\nif you kept doing that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll sneak quietly to get as close\nas we can…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right... [K]Let\'s take them out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ugh... [K]Not like this![K]\nIf we stay here, it\'s over!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh...[K]this is not good![K]\nWe\'ll surely be defeated if we stay here!</t>
+  </si>
+  <si>
+    <t>421, 425</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who are you?![K] Show yourself!</t>
+  </si>
+  <si>
+    <t>469, 473, 477</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My name is [CS:N]Manectric[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am...[K]\nI am the leader of these [CS:N]Electrike[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waaaah!</t>
+  </si>
+  <si>
+    <t>521, 525, 529</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Now, prepare to fight!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух! Какое жуткое место!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот это да! Кажется, будто\nсейчас в нас попадёт молния!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно выбираться отсюда\nкак можно...[K] А?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Смотри!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это ведь он, [hero]?\n[CS:Z]Поплавок[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поглядим поближе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Аа-аааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Зачем вы пришли сюда?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это наша территория!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь кто-то есть![K]\nПрячемся, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хи-хи-хи. Вы так прячетесь?[K] Даже\nкак-то мило...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо.[K] На самом деле, мы будем\nблагодарны, если вы будете так прятаться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы тихонько к вам подкрадёмся...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Итак...[K] Покажем им!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух...[K] Только не это![K] Если\nмы будем стоять на месте, нам конец!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох...[K] Нехорошо![K] Если мы\nбудем стоять на месте, нам несдобровать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто вы?![K] Покажитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я [CS:N]Манектрик[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я...[K] Вожак [CS:N]Электрайков[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Готовьтесь к бою!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö! Ëàëïå çôóëïå íåòóï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó üóï äà! Ëàçåóòÿ, áôäóï\nòåêœàò â îàò ðïðàäæó íïìîéÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï âúáéñàóûòÿ ïóòýäà\nëàë íïçîï...[K] À?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òíïóñé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï âåäû ïî, [hero]?\n[CS:Z]Ðïðìàâïë[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïãìÿäéí ðïáìéçå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àà-àààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàœåí âú ðñéšìé òýäà?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï îàšà óåññéóïñéÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû ëóï-óï åòóû![K]\nÐñÿœåíòÿ, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öé-öé-öé. Âú óàë ðñÿœåóåòû?[K] Äàçå\nëàë-óï íéìï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï.[K] Îà òàíïí äåìå, íú áôäåí\náìàãïäàñîú, åòìé âú áôäåóå óàë ðñÿóàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú óéöïîûëï ë âàí ðïäëñàäæíòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éóàë...[K] Ðïëàçåí éí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö...[K] Óïìûëï îå üóï![K] Åòìé\níú áôäåí òóïÿóû îà íåòóå, îàí ëïîåø!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö...[K] Îåöïñïšï![K] Åòìé íú\náôäåí òóïÿóû îà íåòóå, îàí îåòäïáñïâàóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï âú?![K] Ðïëàçéóåòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ [CS:N]Íàîåëóñéë[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ...[K] Âïçàë [CS:N]Üìåëóñàêëïâ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïóïâûóåòû ë áïý!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D12P41A/m12a0901.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You trespass again?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To claim our territory?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ve got it wrong! We came\nonly to…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please, no! You\'re wrong!\nWe came only to…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re wrong! We came to…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Save your lies!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prepare to fight!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хотите захватить нашу\nтерриторию?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы не поняли! Мы пришли,\nчтобы...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы не так поняли! Мы здесь\nтолько за...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, нет! Вы не поняли!\nМы здесь только за...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прибереги свою ложь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóéóå èàöâàóéóû îàšô\nóåññéóïñéý?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú îå ðïîÿìé! Íú ðñéšìé,\nœóïáú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú îå óàë ðïîÿìé! Íú èäåòû\nóïìûëï èà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, îåó! Âú îå ðïîÿìé!\nÍú èäåòû óïìûëï èà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéáåñåãé òâïý ìïçû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òîïâà òýäà ðñéšìé?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы снова сюда пришли?!</t>
+  </si>
+  <si>
+    <t>Победа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/D12P41A/m12a1001.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rrroooaarrr!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You...you dare?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> W-w-wait a second!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We honestly didn\'t come here to\nmake claims on your territory!</t>
+  </si>
+  <si>
+    <t>50, 54, 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enough! Take this!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Waaah!</t>
+  </si>
+  <si>
+    <t>89, 93, 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stop!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stop this instant![K] Their words\nare sincere!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They trespass, but they don\'t\nintend to make claims on your territory!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Dus[CR]...[K] [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t>211, 215, 219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You![K] Who are you?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am the explorer [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Manectric[CR]![K]\nYou have every right to be angry!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Especially in light of what your\ntribe has suffered on these grounds…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your hostility toward any that\ntrespass here is natural!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This place is your haven! A place\nwhere you find solace!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I understand that completely!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On behalf of these unwitting\ntrespassers, I offer the sincerest apology!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They entered here unbidden, but\ndid so without malice! They mean no harm!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We will leave you in peace as\nsoon as our errand is complete!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please, believe me![K] [CS:N]Manectric[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm...[K] You seem to know much\nabout us, [CS:N]Dusknoir[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You make the claim...[K]that they\nmean no harm…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So be it! I choose to believe\nyour words, [CS:N]Dusknoir[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will allow you some time.[K]\nI expect you to be gone by our return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whew!</t>
+  </si>
+  <si>
+    <t>478, 482, 486</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you, [CS:N]Dusknoir[CR], sir!</t>
+  </si>
+  <si>
+    <t>503, 507, 511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You saved us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But…</t>
+  </si>
+  <si>
+    <t>532, 536, 540</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who were they?</t>
+  </si>
+  <si>
+    <t>546, 550, 554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A group of [CS:N]Manectric[CR] and\n[CS:N]Electrike[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They are a nomadic tribe that\nalways stays on the move.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They roam in constant search of\nplaces that are hospitable to them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And [CS:P]Amp Plains[CR] is often lashed\nby thunderstorms this time of year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They find it to their liking, so\nthey dwell in [CS:P]Amp Plains[CR] this time of year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But, tragically, they were once\nattacked by enemies here without warning…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And I understand that they\nsuffered terrible injuries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ever since, [CS:N]Manectric[CR]\'s group\nhas been very sensitive about\ntrespassers here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So if anyone trespassed upon\nthese grounds, well...[K]they would strike first,\nfor fear of being stricken!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Somehow, at some point...[K]\nThat became a law among [CS:N]Manectric[CR]\'s group.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, I get it now. That\'s why they\ncame after us.</t>
+  </si>
+  <si>
+    <t>594, 598, 602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No wonder they refused to hear\nour arguments.</t>
+  </si>
+  <si>
+    <t>608, 612, 616</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! I forgot something!</t>
+  </si>
+  <si>
+    <t>632, 636</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I recall seeing the [CS:Z]Water Float[CR]\nover there…</t>
+  </si>
+  <si>
+    <t>647, 651</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s here! This is it!</t>
+  </si>
+  <si>
+    <t>707, 711, 715</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Dusknoir[CR], sir, is this the...?</t>
+  </si>
+  <si>
+    <t>726, 730, 734</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s no mistaking it. Without\na doubt, this is a [CS:Z]Water Float[CR].</t>
+  </si>
+  <si>
+    <t>755, 759, 763</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We did it! Let\'s return the item\nto [CS:N]Marill[CR] and his little brother right away!</t>
+  </si>
+  <si>
+    <t>777, 781, 785</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t get it, though...[K] How did\nthis [CS:Z]Water Float[CR] end up here?</t>
+  </si>
+  <si>
+    <t>806, 810, 814</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would imagine that it was\nput there deliberately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoever did this knew that you\nwould eventually get to this spot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The fact that [CS:N]Manectric[CR] protects\nits territory is well known…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Someone expected a\nconfrontation between you and [CS:N]Manectric[CR]...[K]\nYou were set up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wasn\'t that your intention...[K]\nyou sneaking scoundrels?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?</t>
+  </si>
+  <si>
+    <t>860, 864, 868</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s about time that you came out\nof hiding and showed yourselves!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chaw-haw-haw! So you knew all along![K]\nNo point in hiding, then!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey! It\'s you thugs!?</t>
+  </si>
+  <si>
+    <t>941, 945, 949</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa-ho-ho!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heh-heh-heh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chaw-haw-haw!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So you guys did it! But why?</t>
+  </si>
+  <si>
+    <t>979, 983, 987</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa-ho-ho![K] We were going to\nwait for you to get stomped by [CS:N]Manectric[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then we were going to step in\nand mop up afterward!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heh-heh! But we didn\'t count on\nthis guy meddling!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shall we settle this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chaw-haw! Sure, if it was just\nTeam [team:]. You can bet that we\'d\nrough \'em up good!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But against the world-famous\n[CS:N]Dusknoir[CR]...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s a different story!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s skedaddle, boys!</t>
+  </si>
+  <si>
+    <t>[CS:N]Koffing[CR] &amp; [CS:N]Zubat[CR]: Yeah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What stinkers!</t>
+  </si>
+  <si>
+    <t>1077, 1081, 1085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m never forgiving those thugs!</t>
+  </si>
+  <si>
+    <t>1091, 1095, 1099</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They certainly are quick when\nit comes to...skedaddling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m afraid our effort would be\nwasted if we were to give chase now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think we should deliver the\n[CS:Z]Water Float[CR] to the young brothers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ррррррааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как...вы смеете?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> П-п-постойте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы совсем не хотим\nзахватить вашу территорию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Довольно! Получайте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Остановитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Немедленно прекратите![K] Они\nговорят правду!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они чужаки, но они не намерены\nзахватить вашу территорию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Дас[CR]...[K] [CS:N]Даскнуар[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты![K] Кто ты такой?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я - исследователь [CS:N]Даскнуар[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Манектрик[CR]![K] Ты имеешь полное\nправо злиться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Особенно в свете того, через\nкакие страдания пришлось пройти твоей\nстае...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Твоя ненависть к любому чужаку\nвполне естественна!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы нашли здесь своё\nпристанище! Это ваш дом!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я прекрасно это понимаю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> От имени этих невольных\nнарушителей границ, я искренне прошу у\nвас прощения!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они пришли сюда без спроса,\nно также и без злых намерений! Они не\nхотят вам навредить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как только мы закончим здесь\nнаше дело, мы уйдём с миром!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, верь мне![K] [CS:N]Манектрик[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм...[K] Ты о нас многое знаешь,\n[CS:N]Даскнуар[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты заявил...[K] Что они не хотят\nнам навредить...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да будет так! Я поверю в твои\nслова, [CS:N]Даскнуар[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я дам вам немного времени.[K]\nИ надеюсь, что когда мы вернёмся, вас\nздесь уже не будет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Уходим.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фух!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам, [CS:N]Даскнуар[CR], сэр!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы спасли нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто они такие?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Манектрик[CR] и его стая\n[CS:N]Электрайков[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они - кочевое племя, что\nпостоянно переходят с места на место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они кочуют в поисках\nподходящих для них мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А в это время года, на\n[CS:P]Скалистых Равнинах[CR] часто происходят\nгрозы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Им это нравится, поэтому в это\nвремя года они обитают на [CS:P]Скалистых\nРавнинах[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но, к несчастью, однажды на\nних без всякого предупреждения напали\nвраги...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Насколько я знаю, стая ужасно\nпострадала.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> С тех пор, стая [CS:N]Манектрика[CR]\nочень не любит чужаков.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, если на эти земли\nкто-то придёт, то...[K] Из-за страха\nнападения, они нанесут свой удар первыми!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В какой-то момент...[K] В стае\n[CS:N]Манектрика[CR] это стало правилом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, теперь понятно.\nВот почему они на нас напали.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Неудивительно, что они не\nхотели нас выслушать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Я кое о чём забыл!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Я кое о чём забыла!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я помню, что видел\n[CS:Z]Поплавок[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я помню, что видела\n[CS:Z]Поплавок[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он здесь! Вот он!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Даскнуар[CR], сэр, это оно?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ошибки быть не может.\nБез сомнения, это кольцо - [CS:Z]Поплавок[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> У нас получилось! Мы уже\nможем вернуться к [CS:N]Мариллу[CR] и его брату!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я одного не понимаю...[K]\nКак сюда попал [CS:Z]Поплавок[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Полагаю, что его положили сюда\nнамеренно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто бы это ни сделал, он знал,\nчто рано или поздно вы доберётесь сюда.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Манектрик[CR] защищает свою\nтерриторию и об этом хорошо известно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кто-то знал, что между вами и\n[CS:N]Манектриком[CR] произойдёт сражение...[K]\nВас подставили.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы ведь этого хотели...[K]\nПодлые негодяи?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Самое время выползти из\nукрытия и раскрыть себя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кха-ха-ха! Так ты всё знал![K]\nТогда, нет смысла прятаться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй! Это вы, бандиты?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоа-хо-хо!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это вы всё сделали!\nНо зачем?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоа-хо-хо![K] Мы хотели\nподождать, когда вас побьёт [CS:N]Манектрик[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После чего мы хотели вмешаться\nи ограбить вас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе! Но мы не рассчитали,\nчто он придёт сюда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Может, мы разберёмся?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Кха-ха! Конечно, если бы\nпротив нас была Команда [team:].\nМы бы им задали взбучку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но драться против всемирно\nизвестного [CS:N]Даскнуара[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это совсем другой разговор!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удираем, парни!</t>
+  </si>
+  <si>
+    <t>[CS:N]Коффинг[CR] и [CS:N]Зубат[CR]: Да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну и вонючки!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я никогда не прощу этих\nнегодяев!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Они, конечно, быстры, когда\nдело доходит до... удирания.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Боюсь, что если мы начнём за\nними гнаться, то все наши усилия пойдут\nнасмарку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Думаю, нам стоит отдать\n[CS:Z]Поплавок[CR] братьям-малышам.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë...âú òíååóå?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ð-ð-ðïòóïêóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òïâòåí îå öïóéí\nèàöâàóéóû âàšô óåññéóïñéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïâïìûîï! Ðïìôœàêóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïòóàîïâéóåòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåíåäìåîîï ðñåëñàóéóå![K] Ïîé\nãïâïñÿó ðñàâäô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé œôçàëé, îï ïîé îå îàíåñåîú\nèàöâàóéóû âàšô óåññéóïñéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàò[CR]...[K] [CS:N]Äàòëîôàñ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú![K] Ëóï óú óàëïê?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ - éòòìåäïâàóåìû [CS:N]Äàòëîôàñ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàîåëóñéë[CR]![K] Óú éíååšû ðïìîïå\nðñàâï èìéóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïòïáåîîï â òâåóå óïãï, œåñåè\nëàëéå òóñàäàîéÿ ðñéšìïòû ðñïêóé óâïåê\nòóàå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óâïÿ îåîàâéòóû ë ìýáïíô œôçàëô\nâðïìîå åòóåòóâåîîà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú îàšìé èäåòû òâïæ\nðñéòóàîéþå! Üóï âàš äïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñåëñàòîï üóï ðïîéíàý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïó éíåîé üóéö îåâïìûîúö\nîàñôšéóåìåê ãñàîéø, ÿ éòëñåîîå ðñïšô ô\nâàò ðñïþåîéÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé ðñéšìé òýäà áåè òðñïòà,\nîï óàëçå é áåè èìúö îàíåñåîéê! Ïîé îå\nöïóÿó âàí îàâñåäéóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óïìûëï íú èàëïîœéí èäåòû\nîàšå äåìï, íú ôêäæí ò íéñïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, âåñû íîå![K] [CS:N]Íàîåëóñéë[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí...[K] Óú ï îàò íîïãïå èîàåšû,\n[CS:N]Äàòëîôàñ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú èàÿâéì...[K] Œóï ïîé îå öïóÿó\nîàí îàâñåäéóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà áôäåó óàë! Ÿ ðïâåñý â óâïé\nòìïâà, [CS:N]Äàòëîôàñ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äàí âàí îåíîïãï âñåíåîé.[K]\nÉ îàäåýòû, œóï ëïãäà íú âåñîæíòÿ, âàò\nèäåòû ôçå îå áôäåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôöïäéí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Õôö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí, [CS:N]Äàòëîôàñ[CR], òüñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òðàòìé îàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï ïîé óàëéå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàîåëóñéë[CR] é åãï òóàÿ\n[CS:N]Üìåëóñàêëïâ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé - ëïœåâïå ðìåíÿ, œóï\nðïòóïÿîîï ðåñåöïäÿó ò íåòóà îà íåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé ëïœôýó â ðïéòëàö\nðïäöïäÿþéö äìÿ îéö íåòó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À â üóï âñåíÿ ãïäà, îà\n[CS:P]Òëàìéòóúö Ñàâîéîàö[CR] œàòóï ðñïéòöïäÿó\nãñïèú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éí üóï îñàâéóòÿ, ðïüóïíô â üóï\nâñåíÿ ãïäà ïîé ïáéóàýó îà [CS:P]Òëàìéòóúö\nÑàâîéîàö[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï, ë îåòœàòóûý, ïäîàçäú îà\nîéö áåè âòÿëïãï ðñåäôðñåçäåîéÿ îàðàìé\nâñàãé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàòëïìûëï ÿ èîàý, òóàÿ ôçàòîï\nðïòóñàäàìà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ò óåö ðïñ, òóàÿ [CS:N]Íàîåëóñéëà[CR]\nïœåîû îå ìýáéó œôçàëïâ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, åòìé îà üóé èåíìé\nëóï-óï ðñéäæó, óï...[K] Éè-èà òóñàöà\nîàðàäåîéÿ, ïîé îàîåòôó òâïê ôäàñ ðåñâúíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ëàëïê-óï íïíåîó...[K] Â òóàå\n[CS:N]Íàîåëóñéëà[CR] üóï òóàìï ðñàâéìïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, óåðåñû ðïîÿóîï.\nÂïó ðïœåíô ïîé îà îàò îàðàìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåôäéâéóåìûîï, œóï ïîé îå\nöïóåìé îàò âúòìôšàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Ÿ ëïå ï œæí èàáúì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Ÿ ëïå ï œæí èàáúìà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïíîý, œóï âéäåì\n[CS:Z]Ðïðìàâïë[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïíîý, œóï âéäåìà\n[CS:Z]Ðïðìàâïë[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî èäåòû! Âïó ïî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàòëîôàñ[CR], òüñ, üóï ïîï?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïšéáëé áúóû îå íïçåó.\nÁåè òïíîåîéÿ, üóï ëïìûøï - [CS:Z]Ðïðìàâïë[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ô îàò ðïìôœéìïòû! Íú ôçå\níïçåí âåñîôóûòÿ ë [CS:N]Íàñéììô[CR] é åãï áñàóô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ ïäîïãï îå ðïîéíàý...[K]\nËàë òýäà ðïðàì [CS:Z]Ðïðìàâïë[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïìàãàý, œóï åãï ðïìïçéìé òýäà\nîàíåñåîîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï áú üóï îé òäåìàì, ïî èîàì,\nœóï ñàîï éìé ðïèäîï âú äïáåñæóåòû òýäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàîåëóñéë[CR] èàþéþàåó òâïý\nóåññéóïñéý é ïá üóïí öïñïšï éèâåòóîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëóï-óï èîàì, œóï íåçäô âàíé é\n[CS:N]Íàîåëóñéëïí[CR] ðñïéèïêäæó òñàçåîéå...[K]\nÂàò ðïäòóàâéìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âåäû üóïãï öïóåìé...[K]\nÐïäìúå îåãïäÿé?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òàíïå âñåíÿ âúðïìèóé éè\nôëñúóéÿ é ñàòëñúóû òåáÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëöà-öà-öà! Óàë óú âòæ èîàì![K]\nÓïãäà, îåó òíúòìà ðñÿóàóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê! Üóï âú, áàîäéóú?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïà-öï-öï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëöà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï âú âòæ òäåìàìé!\nÎï èàœåí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïà-öï-öï![K] Íú öïóåìé\nðïäïçäàóû, ëïãäà âàò ðïáûæó [CS:N]Íàîåëóñéë[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå œåãï íú öïóåìé âíåšàóûòÿ\né ïãñàáéóû âàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå! Îï íú îå ñàòòœéóàìé,\nœóï ïî ðñéäæó òýäà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåó, íú ñàèáåñæíòÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëöà-öà! Ëïîåœîï, åòìé áú\nðñïóéâ îàò áúìà Ëïíàîäà [team:].\nÍú áú éí èàäàìé âèáôœëô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï äñàóûòÿ ðñïóéâ âòåíéñîï\néèâåòóîïãï [CS:N]Äàòëîôàñà[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï òïâòåí äñôãïê ñàèãïâïñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäéñàåí, ðàñîé!</t>
+  </si>
+  <si>
+    <t>[CS:N]Ëïõõéîã[CR] é [CS:N]Èôáàó[CR]: Äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô é âïîýœëé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îéëïãäà îå ðñïþô üóéö\nîåãïäÿåâ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïîé, ëïîåœîï, áúòóñú, ëïãäà\näåìï äïöïäéó äï... ôäéñàîéÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áïýòû, œóï åòìé íú îàœîæí èà\nîéíé ãîàóûòÿ, óï âòå îàšé ôòéìéÿ ðïêäôó\nîàòíàñëô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äôíàý, îàí òóïéó ïóäàóû\n[CS:Z]Ðïðìàâïë[CR] áñàóûÿí-íàìúšàí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ññññññààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, wow! We got our [CS:Z]Water\nFloat[CR] back!</t>
+  </si>
+  <si>
+    <t>Вы отдаёте Поплавок</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/m12a1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You saved [CS:N]Azurill[CR] way back\nwhen, and now this!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yay! Thank you! Really!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t know how we could ever\nthank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But, really...[K]thank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, please! It\'s OK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you want to thank anyone,\nthank the great [CS:N]Dusknoir[CR]!</t>
+  </si>
+  <si>
+    <t>69, 73, 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If [CS:N]Dusknoir[CR] hadn\'t been there,\nwe wouldn\'t be here now!</t>
+  </si>
+  <si>
+    <t>83, 87, 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you very much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No trouble at all. I\'m very happy\nfor you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s wonderful that your\n[CS:Z]Water Float[CR] has come back to you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I must say! It is so like the\ngreat [CS:N]Dusknoir[CR] to be so modest!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And I must say that Team\n[team:] has also been superb!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After all, the team has again\ncompleted a difficult job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When rescuing [CS:N]Azurill[CR], you were\nso fast at pinpointing the child\'s whereabouts!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And so fast at reaching our\nyoung friend too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh...about the [CS:N]Azurill[CR] rescue, we\nhave to admit something…</t>
+  </si>
+  <si>
+    <t>182, 186, 190</t>
+  </si>
+  <si>
+    <t>It would be great...if it truly\nhappened the way [CS:N]Kecleon[CR] said…</t>
+  </si>
+  <si>
+    <t>196, 200, 204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But that\'s not exactly the truth.</t>
+  </si>
+  <si>
+    <t>220, 224, 228</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We didn\'t pin down [CS:N]Azurill[CR]\'s\nlocation before we rescued him.</t>
+  </si>
+  <si>
+    <t>234, 238, 242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My partner here just happened\nto see it in a dream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excuse me?[K] A dream, you say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> By dream, what do you mean?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! Right!</t>
+  </si>
+  <si>
+    <t>301, 305, 309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maybe the great [CS:N]Dusknoir[CR] will\nknow what it all means!</t>
+  </si>
+  <si>
+    <t>315, 319, 323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You see, my partner occasionally\ngets strange dizzy spells when touching\nsomething or someone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And then my partner sees or\nhears events that happened in the past! Or just\nabout to happen in the future!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?![K] Well, that\'s...[K]that\'s…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Dimensional Scream!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?!</t>
+  </si>
+  <si>
+    <t>387, 391, 395</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Dusknoir[CR], sir, you really know\nsomething about this?!</t>
+  </si>
+  <si>
+    <t>401, 405, 409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In that case…</t>
+  </si>
+  <si>
+    <t>415, 419, 423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Should we ask if [CS:N]Dusknoir[CR]\nknows even more?!</t>
+  </si>
+  <si>
+    <t>440, 444, 448</t>
+  </si>
+  <si>
+    <t>(Ask about what...?)</t>
+  </si>
+  <si>
+    <t>456, 460</t>
+  </si>
+  <si>
+    <t>(Oh![K] Right!)</t>
+  </si>
+  <si>
+    <t>476, 480</t>
+  </si>
+  <si>
+    <t>(About my own forgotten past!)</t>
+  </si>
+  <si>
+    <t>486, 490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s OK to ask, right,\n[hero]?</t>
+  </si>
+  <si>
+    <t>499, 503, 507</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Dusknoir[CR], sir, we were\nwondering if we could get your advice about\nsomething.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ура! Спасибо вам огромное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы спасли [CS:N]Азурилла[CR] и теперь\nсделали для нас такое!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я даже не знаю, сможем ли мы\nкогда-нибудь вас отблагодарить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но правда...[K] Спасибо вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, прошу вас! Не нужно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если кого и нужно\nблагодарить, то это великого [CS:N]Даскнуара[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если бы [CS:N]Даскнуар[CR] не пришёл,\nмы бы здесь не стояли!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам огромное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Без проблем. Я очень рад за\nвас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо, что [CS:Z]Поплавок[CR] снова\nоказался у вас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должен сказать, что великий\n[CS:N]Даскнуар[CR] весьма скромен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И также я должен сказать, что\nКоманда [team:] была великолепна!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё же, команда вновь смогла\nзавершить трудное задание!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы довольно быстро выяснили\nгде был [CS:N]Азурилл[CR], когда ходили его\nспасать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И вы не менее быстро добрались\nдо нашего друга-малыша!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О... Говоря о спасении\n[CS:N]Азурилла[CR], нам нужно признаться кое в\nчём...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Было бы здорово... Если бы\nвсё на самом деле случилось так, как\nсказал [CS:N]Кеклеон[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но это не совсем правда.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы не выясняли, где был\n[CS:N]Азурилл[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мой спутник просто увидел\nего в видении.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Моя спутница просто увидела\nего в видении.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу прощения?[K] В видении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что ты имеешь в виду,\nговоря о видении?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Точно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Возможно великий [CS:N]Даскнуар[CR]\nзнает, что это такое!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Видите ли, прикасаясь к\nкому-либо или к чему-либо, мой спутник\nиногда может почувствовать головокружение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Видите ли, прикасаясь к\nкому-либо или к чему-либо, моя спутница\nиногда может почувствовать головокружение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И затем он начинает видеть\nили слышать события, которые могут\nслучаться как в прошлом, так и в будущем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И затем она начинает видеть\nили слышать события, которые могут\nслучаться как в прошлом, так и в будущем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] Ну, это же...[K] Это...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пространственный Крик!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Даскнуар[CR], сэр, вы и правда\nчто-то знаете об этом?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В таком случае...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Может, мы должны\nрасспросить [CS:N]Даскнуара[CR]?!</t>
+  </si>
+  <si>
+    <t>(Расспросить о чём?..)</t>
+  </si>
+  <si>
+    <t>(Ой![K] Точно!)</t>
+  </si>
+  <si>
+    <t>(О моём забытом прошлом!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ничего, если я его спрошу,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Даскнуар[CR], сэр, нам\nинтересно, не можем ли мы спросить вашего\nсовета насчет кое-чего.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñà! Òðàòéáï âàí ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òðàòìé [CS:N]Àèôñéììà[CR] é óåðåñû\nòäåìàìé äìÿ îàò óàëïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äàçå îå èîàý, òíïçåí ìé íú\nëïãäà-îéáôäû âàò ïóáìàãïäàñéóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ðñàâäà...[K] Òðàòéáï âàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ðñïšô âàò! Îå îôçîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé ëïãï é îôçîï\náìàãïäàñéóû, óï üóï âåìéëïãï [CS:N]Äàòëîôàñà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé áú [CS:N]Äàòëîôàñ[CR] îå ðñéšæì,\níú áú èäåòû îå òóïÿìé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áåè ðñïáìåí. Ÿ ïœåîû ñàä èà\nâàò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï, œóï [CS:Z]Ðïðìàâïë[CR] òîïâà\nïëàèàìòÿ ô âàò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçåî òëàèàóû, œóï âåìéëéê\n[CS:N]Äàòëîôàñ[CR] âåòûíà òëñïíåî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É óàëçå ÿ äïìçåî òëàèàóû, œóï\nËïíàîäà [team:] áúìà âåìéëïìåðîà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ çå, ëïíàîäà âîïâû òíïãìà\nèàâåñšéóû óñôäîïå èàäàîéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú äïâïìûîï áúòóñï âúÿòîéìé\nãäå áúì [CS:N]Àèôñéìì[CR], ëïãäà öïäéìé åãï\nòðàòàóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É âú îå íåîåå áúòóñï äïáñàìéòû\näï îàšåãï äñôãà-íàìúšà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï... Ãïâïñÿ ï òðàòåîéé\n[CS:N]Àèôñéììà[CR], îàí îôçîï ðñéèîàóûòÿ ëïå â\nœæí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áúìï áú èäïñïâï... Åòìé áú\nâòæ îà òàíïí äåìå òìôœéìïòû óàë, ëàë\nòëàèàì [CS:N]Ëåëìåïî[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï üóï îå òïâòåí ðñàâäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú îå âúÿòîÿìé, ãäå áúì\n[CS:N]Àèôñéìì[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïê òðôóîéë ðñïòóï ôâéäåì\nåãï â âéäåîéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïÿ òðôóîéøà ðñïòóï ôâéäåìà\nåãï â âéäåîéé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô ðñïþåîéÿ?[K] Â âéäåîéé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï óú éíååšû â âéäô,\nãïâïñÿ ï âéäåîéé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Óïœîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïèíïçîï âåìéëéê [CS:N]Äàòëîôàñ[CR]\nèîàåó, œóï üóï óàëïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âéäéóå ìé, ðñéëàòàÿòû ë\nëïíô-ìéáï éìé ë œåíô-ìéáï, íïê òðôóîéë\néîïãäà íïçåó ðïœôâòóâïâàóû ãïìïâïëñôçåîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âéäéóå ìé, ðñéëàòàÿòû ë\nëïíô-ìéáï éìé ë œåíô-ìéáï, íïÿ òðôóîéøà\néîïãäà íïçåó ðïœôâòóâïâàóû ãïìïâïëñôçåîéå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É èàóåí ïî îàœéîàåó âéäåóû\néìé òìúšàóû òïáúóéÿ, ëïóïñúå íïãôó\nòìôœàóûòÿ ëàë â ðñïšìïí, óàë é â áôäôþåí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É èàóåí ïîà îàœéîàåó âéäåóû\néìé òìúšàóû òïáúóéÿ, ëïóïñúå íïãôó\nòìôœàóûòÿ ëàë â ðñïšìïí, óàë é â áôäôþåí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] Îô, üóï çå...[K] Üóï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóñàîòóâåîîúê Ëñéë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàòëîôàñ[CR], òüñ, âú é ðñàâäà\nœóï-óï èîàåóå ïá üóïí?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â óàëïí òìôœàå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåó, íú äïìçîú\nñàòòðñïòéóû [CS:N]Äàòëîôàñà[CR]?!</t>
+  </si>
+  <si>
+    <t>(Ñàòòðñïòéóû ï œæí?..)</t>
+  </si>
+  <si>
+    <t>(Ïê![K] Óïœîï!)</t>
+  </si>
+  <si>
+    <t>(Ï íïæí èàáúóïí ðñïšìïí!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îéœåãï, åòìé ÿ åãï òðñïšô,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Äàòëîôàñ[CR], òüñ, îàí\néîóåñåòîï, îå íïçåí ìé íú òðñïòéóû âàšåãï\nòïâåóà îàòœåó ëïå-œåãï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, вау! У нас снова есть\n[CS:Z]Поплавок[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, âàô! Ô îàò òîïâà åòóû\n[CS:Z]Ðïðìàâïë[CR]!</t>
+  </si>
+  <si>
+    <t>Даскнуар пошёл с вами на пляж</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yep, this is the spot.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/m12a1201.ssb</t>
+  </si>
+  <si>
+    <t>22, 26, 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Then you regained consciousness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Though you\'d lost your memory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yep. With a memory of a name…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...and the memory of being a\nhuman before this!</t>
+  </si>
+  <si>
+    <t>86, 90, 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I beg your pardon?![K] H-human?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But our friend here seems to be\na Pokémon in every obvious way!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s true…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I guess this is even beyond the\ngreat [CS:N]Dusknoir[CR]\'s understanding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we\'re sure that something\ncaused my partner\'s memory loss…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...and caused the transformation\nfrom human to Pokémon!</t>
+  </si>
+  <si>
+    <t>189, 193, 197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A human...[K]with the Dimensional\nScream ability…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You...are...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You said you know your name,\nat least?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And...[K]that name would be...?</t>
+  </si>
+  <si>
+    <t>[CN][hero] told the\n[CN]name to [CS:N]Dusknoir[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah! I see…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re...[K][hero]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Does that name ring a bell?</t>
+  </si>
+  <si>
+    <t>259, 263, 267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It means nothing to me,\nunfortunately.</t>
+  </si>
+  <si>
+    <t>(Uh, what?!)</t>
+  </si>
+  <si>
+    <t>(Did I just see...[K]the faintest...)</t>
+  </si>
+  <si>
+    <t>(Did [CS:N]Dusknoir[CR] just hide the faintest of\nsmiles?)</t>
+  </si>
+  <si>
+    <t>297, 301</t>
+  </si>
+  <si>
+    <t>317, 321</t>
+  </si>
+  <si>
+    <t>(Or did I imagine that...?)</t>
+  </si>
+  <si>
+    <t>327, 331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sincerely sorry I couldn\'t\nhelp you with that…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I do know about the ability that\n[hero] possesses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really?! What is it?!</t>
+  </si>
+  <si>
+    <t>357, 361, 365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ability to see the future or\nthe past by touching something…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That ability is known as the\nDimensional Scream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dimensional...[K]Scream?</t>
+  </si>
+  <si>
+    <t>381, 385, 389</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indeed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How such an ability is learned,\nthat is unknown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But sounds and images slice\nacross the boundaries of time, breaching\nobjects and reaching into Pokémon…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To manifest as visions…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And that is all that I know about\nthe extraordinary ability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So [hero] has an ability\nas special as the Dimensional Scream…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, perhaps this is why we\nbecame friends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To help unravel the secret of\n[hero]\'s transformation into a Pokémon!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I offer you my full cooperation!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! You will?!</t>
+  </si>
+  <si>
+    <t>467, 471, 475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes. To be perfectly candid…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t stand knowing that\nthere\'s something I don\'t know!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quite honestly, that is the full\ntruth of it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ha-ha-ha! Hoo-hoo-ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s great to know that we\nhave your help, [CS:N]Dusknoir[CR], sir!</t>
+  </si>
+  <si>
+    <t>516, 520, 524</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isn\'t this great, [hero]?</t>
+  </si>
+  <si>
+    <t>530, 534, 538</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? Look at all the [CS:N]Pelipper[CR]!</t>
+  </si>
+  <si>
+    <t>600, 604, 608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There seems to be a lot more\nflying around than usual…</t>
+  </si>
+  <si>
+    <t>699, 703, 707</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Could something be the matter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hello, [CS:N]Bidoof[CR]!</t>
+  </si>
+  <si>
+    <t>780, 784, 788</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I f-finally...f-found you all…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s the big rush? You\'re all\nout of breath!</t>
+  </si>
+  <si>
+    <t>817, 821, 825</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The call has been put out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All the apprentices are to report\nto the guild immediately!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uh-oh. Something is up!</t>
+  </si>
+  <si>
+    <t>856, 860, 864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will go with you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurry, everyone!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, вот на этом месте.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Затем ты пришёл в себя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Затем ты пришла в себя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоть и потерял память.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хоть и потеряла память.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу прощения?![K] Ч-человека?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но наш друг, весьма очевидно,\nПокемон!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но наша подруга, весьма\nочевидно, Покемон!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это правда...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, вся эта ситуация за\nгранью понимания даже для великого\n[CS:N]Даскнуара[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но мы точно знаем, что\nчто-то стёрло память моему спутнику...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но мы точно знаем, что\nчто-то стёрло память моей спутнице...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...и привело к превращению\nчеловека в Покемона!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Человека...[K] Того, кто обладает\nспособностью Пространственного Крика...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты говоришь, что знаешь своё\nимя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И...[K] Это имя?..</t>
+  </si>
+  <si>
+    <t>[hero] говорит [CS:N]Даскнуару[CR]\nсвоё имя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А! Понятно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты...[K] [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вам знакомо это имя?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Нет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> К сожалению, это имя мне\nнезнакомо.</t>
+  </si>
+  <si>
+    <t>(Эм, что?!)</t>
+  </si>
+  <si>
+    <t>(Я что, видел...[K] Едва заметную...)</t>
+  </si>
+  <si>
+    <t>(Я что, видела...[K] Едва заметную...)</t>
+  </si>
+  <si>
+    <t>([CS:N]Даскнуар[CR] только что едва заметно\nулыбнулся?)</t>
+  </si>
+  <si>
+    <t>(Или мне показалось?..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне очень жаль, что я не могу\nвам чем-либо помочь...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знаю о способности, которой\nобладает [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Правда?! Что это?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Способность видеть будущее или\nпрошлое при прикосновении к чему-либо...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эта способность называется\nПространственным Криком.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пространственным...[K] Криком?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Неизвестно каким образом можно\nизучить эту способность.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но звуки и образы, проникающие\nсквозь временные границы, отпечатываются\nв вещах и раскрываются Покемону...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В качестве видений...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И это всё, что мне известно\nоб этой уникальной способности.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Значит, [hero] обладает\nспособностью, такой же уникальной как и\nПространственный Крик...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-ж, похоже, по этой причине\nмы и станем друзьями.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу помочь раскрыть тайну\nпревращения в Покемона!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я предлагаю вам свое полное\nсотрудничество!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Правда?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да.\nБуду предельно откровенен...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не могу смириться с\nосознанием того, что есть что-то, чего я\nне знаю!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Весьма честно, в этом вся\nправда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ха-ха-ха! Хо-хо-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рады слышать, что мы можем\nрассчитывать на вашу помощь, сэр [CS:N]Даскнуар[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разве это не прекрасно,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А?\nПосмотрите на [CS:N]Пелипперов[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как-то их сегодня гораздо\nбольше, чем обычно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-то случилось?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Привет, [CS:N]Бидуф[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Н-наконец-то... Я в-вас нашёл...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что за спешка? Ты весь\nзапыхался!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Трубят общий сбор!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все ученики должны немедленно\nявиться в гильдию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой-ёй. Что-то случилось!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я пойду с вами!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поторопитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, âïó îà üóïí íåòóå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàóåí óú ðñéšæì â òåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàóåí óú ðñéšìà â òåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóû é ðïóåñÿì ðàíÿóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóû é ðïóåñÿìà ðàíÿóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô ðñïþåîéÿ?![K] Œ-œåìïâåëà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îàš äñôã, âåòûíà ïœåâéäîï,\nÐïëåíïî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îàšà ðïäñôãà, âåòûíà\nïœåâéäîï, Ðïëåíïî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ðñàâäà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, âòÿ üóà òéóôàøéÿ èà\nãñàîûý ðïîéíàîéÿ äàçå äìÿ âåìéëïãï\n[CS:N]Äàòëîôàñà[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï íú óïœîï èîàåí, œóï\nœóï-óï òóæñìï ðàíÿóû íïåíô òðôóîéëô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï íú óïœîï èîàåí, œóï\nœóï-óï òóæñìï ðàíÿóû íïåê òðôóîéøå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...é ðñéâåìï ë ðñåâñàþåîéý\nœåìïâåëà â Ðïëåíïîà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œåìïâåëà...[K] Óïãï, ëóï ïáìàäàåó\nòðïòïáîïòóûý Ðñïòóñàîòóâåîîïãï Ëñéëà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú ãïâïñéšû, œóï èîàåšû òâïæ\néíÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É...[K] Üóï éíÿ?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À! Ðïîÿóîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú...[K] [hero]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàí èîàëïíï üóï éíÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Îåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ë òïçàìåîéý, üóï éíÿ íîå\nîåèîàëïíï.</t>
+  </si>
+  <si>
+    <t>(Üí, œóï?!)</t>
+  </si>
+  <si>
+    <t>(Ÿ œóï, âéäåì...[K] Åäâà èàíåóîôý...)</t>
+  </si>
+  <si>
+    <t>(Ÿ œóï, âéäåìà...[K] Åäâà èàíåóîôý...)</t>
+  </si>
+  <si>
+    <t>([CS:N]Äàòëîôàñ[CR] óïìûëï œóï åäâà èàíåóîï\nôìúáîôìòÿ?)</t>
+  </si>
+  <si>
+    <t>(Éìé íîå ðïëàèàìïòû?..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ïœåîû çàìû, œóï ÿ îå íïãô\nâàí œåí-ìéáï ðïíïœû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàý ï òðïòïáîïòóé, ëïóïñïê\nïáìàäàåó [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñàâäà?! Œóï üóï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðïòïáîïòóû âéäåóû áôäôþåå éìé\nðñïšìïå ðñé ðñéëïòîïâåîéé ë œåíô-ìéáï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóà òðïòïáîïòóû îàèúâàåóòÿ\nÐñïòóñàîòóâåîîúí Ëñéëïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóñàîòóâåîîúí...[K] Ëñéëïí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåéèâåòóîï ëàëéí ïáñàèïí íïçîï\néèôœéóû üóô òðïòïáîïòóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï èâôëé é ïáñàèú, ðñïîéëàýþéå\nòëâïèû âñåíåîîúå ãñàîéøú, ïóðåœàóúâàýóòÿ\nâ âåþàö é ñàòëñúâàýóòÿ Ðïëåíïîô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â ëàœåòóâå âéäåîéê...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É üóï âòæ, œóï íîå éèâåòóîï\nïá üóïê ôîéëàìûîïê òðïòïáîïòóé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èîàœéó, [hero] ïáìàäàåó\nòðïòïáîïòóûý, óàëïê çå ôîéëàìûîïê ëàë é\nÐñïòóñàîòóâåîîúê Ëñéë...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-ç, ðïöïçå, ðï üóïê ðñéœéîå\níú é òóàîåí äñôèûÿíé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô ðïíïœû ñàòëñúóû óàêîô\nðñåâñàþåîéÿ â Ðïëåíïîà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñåäìàãàý âàí òâïå ðïìîïå\nòïóñôäîéœåòóâï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Ðñàâäà?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà.\nÁôäô ðñåäåìûîï ïóëñïâåîåî...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå íïãô òíéñéóûòÿ ò\nïòïèîàîéåí óïãï, œóï åòóû œóï-óï, œåãï ÿ\nîå èîàý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âåòûíà œåòóîï, â üóïí âòÿ\nðñàâäà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öà-öà-öà! Öï-öï-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàäú òìúšàóû, œóï íú íïçåí\nñàòòœéóúâàóû îà âàšô ðïíïþû, òüñ [CS:N]Äàòëîôàñ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèâå üóï îå ðñåëñàòîï,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À?\nÐïòíïóñéóå îà [CS:N]Ðåìéððåñïâ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë-óï éö òåãïäîÿ ãïñàèäï\náïìûšå, œåí ïáúœîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-óï òìôœéìïòû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåó, [CS:N]Áéäôõ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Î-îàëïîåø-óï... Ÿ â-âàò îàšæì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï èà òðåšëà? Óú âåòû\nèàðúöàìòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óñôáÿó ïáþéê òáïñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå ôœåîéëé äïìçîú îåíåäìåîîï\nÿâéóûòÿ â ãéìûäéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê-æê. Œóï-óï òìôœéìïòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïêäô ò âàíé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïóïñïðéóåòû!</t>
+  </si>
+  <si>
+    <t>[CN][hero] ãïâïñéó [CS:N]Äàòëîôàñô[CR]\n[CN]òâïæ éíÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ага. Но сохранив память о\nимени...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...и память о жизни\nчеловека!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àãà. Îï òïöñàîéâ ðàíÿóû ï\néíåîé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...é ðàíÿóû ï çéèîé\nœåìïâåëà!</t>
   </si>
 </sst>
 </file>
@@ -3146,7 +5696,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3210,6 +5760,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3374,7 +5930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3505,13 +6061,37 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3794,10 +6374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+    <sheetView tabSelected="1" topLeftCell="A501" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8278,680 +10858,5027 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A264" s="44" t="s">
+      <c r="A264" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="B264" s="13" t="s">
+      <c r="B264" s="16" t="s">
         <v>888</v>
       </c>
-      <c r="C264" s="13">
+      <c r="C264" s="16">
         <v>59</v>
       </c>
-      <c r="D264" s="14" t="s">
+      <c r="D264" s="17" t="s">
         <v>889</v>
       </c>
-      <c r="E264" s="14" t="s">
+      <c r="E264" s="17" t="s">
         <v>950</v>
       </c>
-      <c r="F264" s="14" t="s">
+      <c r="F264" s="18" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="24"/>
       <c r="B265" s="25"/>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="20" t="s">
         <v>891</v>
       </c>
-      <c r="D265" s="14" t="s">
+      <c r="D265" s="21" t="s">
         <v>890</v>
       </c>
-      <c r="E265" s="14" t="s">
+      <c r="E265" s="21" t="s">
         <v>951</v>
       </c>
-      <c r="F265" s="14" t="s">
+      <c r="F265" s="22" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A266" s="24"/>
       <c r="B266" s="25"/>
-      <c r="C266" s="13" t="s">
+      <c r="C266" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="D266" s="14" t="s">
+      <c r="D266" s="21" t="s">
         <v>892</v>
       </c>
-      <c r="E266" s="14" t="s">
+      <c r="E266" s="21" t="s">
         <v>952</v>
       </c>
-      <c r="F266" s="14" t="s">
+      <c r="F266" s="22" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A267" s="45" t="s">
+      <c r="A267" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C267" s="13">
+      <c r="B267" s="20"/>
+      <c r="C267" s="20">
         <v>98</v>
       </c>
-      <c r="D267" s="14" t="s">
+      <c r="D267" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="E267" s="14" t="s">
+      <c r="E267" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="F267" s="14" t="s">
+      <c r="F267" s="22" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="24"/>
       <c r="B268" s="25"/>
-      <c r="C268" s="13" t="s">
+      <c r="C268" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="D268" s="14" t="s">
+      <c r="D268" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="E268" s="14" t="s">
+      <c r="E268" s="21" t="s">
         <v>954</v>
       </c>
-      <c r="F268" s="14" t="s">
+      <c r="F268" s="22" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="45" t="s">
+      <c r="A269" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C269" s="13">
+      <c r="B269" s="20"/>
+      <c r="C269" s="20">
         <v>123</v>
       </c>
-      <c r="D269" s="14" t="s">
+      <c r="D269" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="E269" s="14" t="s">
+      <c r="E269" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="F269" s="14" t="s">
+      <c r="F269" s="22" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A270" s="45" t="s">
+      <c r="A270" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="C270" s="13">
+      <c r="B270" s="20"/>
+      <c r="C270" s="20">
         <v>132</v>
       </c>
-      <c r="D270" s="14" t="s">
+      <c r="D270" s="21" t="s">
         <v>897</v>
       </c>
-      <c r="E270" s="14" t="s">
+      <c r="E270" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="F270" s="14" t="s">
+      <c r="F270" s="22" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="24"/>
       <c r="B271" s="25"/>
-      <c r="C271" s="13" t="s">
+      <c r="C271" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="D271" s="14" t="s">
+      <c r="D271" s="21" t="s">
         <v>898</v>
       </c>
-      <c r="E271" s="14" t="s">
+      <c r="E271" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="F271" s="14" t="s">
+      <c r="F271" s="22" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A272" s="24"/>
       <c r="B272" s="25"/>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="20" t="s">
         <v>901</v>
       </c>
-      <c r="D272" s="14" t="s">
+      <c r="D272" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="E272" s="14" t="s">
+      <c r="E272" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="F272" s="14" t="s">
+      <c r="F272" s="22" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A273" s="45" t="s">
+      <c r="A273" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C273" s="13">
+      <c r="B273" s="20"/>
+      <c r="C273" s="20">
         <v>182</v>
       </c>
-      <c r="D273" s="14" t="s">
+      <c r="D273" s="21" t="s">
         <v>902</v>
       </c>
-      <c r="E273" s="14" t="s">
+      <c r="E273" s="21" t="s">
         <v>958</v>
       </c>
-      <c r="F273" s="14" t="s">
+      <c r="F273" s="22" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A274" s="45"/>
-      <c r="C274" s="13">
+      <c r="A274" s="23"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20">
         <v>185</v>
       </c>
-      <c r="D274" s="14" t="s">
+      <c r="D274" s="21" t="s">
         <v>903</v>
       </c>
-      <c r="E274" s="14" t="s">
+      <c r="E274" s="21" t="s">
         <v>959</v>
       </c>
-      <c r="F274" s="14" t="s">
+      <c r="F274" s="22" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="24"/>
       <c r="B275" s="25"/>
-      <c r="C275" s="13" t="s">
+      <c r="C275" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="D275" s="14" t="s">
+      <c r="D275" s="21" t="s">
         <v>904</v>
       </c>
-      <c r="E275" s="14" t="s">
+      <c r="E275" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="F275" s="14" t="s">
+      <c r="F275" s="22" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="24"/>
       <c r="B276" s="25"/>
-      <c r="C276" s="13" t="s">
+      <c r="C276" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="D276" s="14" t="s">
+      <c r="D276" s="21" t="s">
         <v>905</v>
       </c>
-      <c r="E276" s="14" t="s">
+      <c r="E276" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="F276" s="14" t="s">
+      <c r="F276" s="22" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A277" s="46"/>
-      <c r="C277" s="13">
+      <c r="A277" s="44"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="20">
         <v>275</v>
       </c>
-      <c r="D277" s="14" t="s">
+      <c r="D277" s="21" t="s">
         <v>906</v>
       </c>
-      <c r="E277" s="14" t="s">
+      <c r="E277" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="F277" s="14" t="s">
+      <c r="F277" s="22" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A278" s="24"/>
       <c r="B278" s="25"/>
-      <c r="C278" s="13" t="s">
+      <c r="C278" s="20" t="s">
         <v>908</v>
       </c>
-      <c r="D278" s="14" t="s">
+      <c r="D278" s="21" t="s">
         <v>907</v>
       </c>
-      <c r="E278" s="14" t="s">
+      <c r="E278" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="F278" s="14" t="s">
+      <c r="F278" s="22" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="24"/>
       <c r="B279" s="25"/>
-      <c r="C279" s="13" t="s">
+      <c r="C279" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="D279" s="14" t="s">
+      <c r="D279" s="21" t="s">
         <v>909</v>
       </c>
-      <c r="E279" s="14" t="s">
+      <c r="E279" s="21" t="s">
         <v>963</v>
       </c>
-      <c r="F279" s="14" t="s">
+      <c r="F279" s="22" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A280" s="24"/>
       <c r="B280" s="25"/>
-      <c r="C280" s="13" t="s">
+      <c r="C280" s="20" t="s">
         <v>912</v>
       </c>
-      <c r="D280" s="14" t="s">
+      <c r="D280" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="E280" s="14" t="s">
+      <c r="E280" s="21" t="s">
         <v>964</v>
       </c>
-      <c r="F280" s="14" t="s">
+      <c r="F280" s="22" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A281" s="24"/>
       <c r="B281" s="25"/>
-      <c r="C281" s="13" t="s">
+      <c r="C281" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="D281" s="14" t="s">
+      <c r="D281" s="21" t="s">
         <v>913</v>
       </c>
-      <c r="E281" s="14" t="s">
+      <c r="E281" s="21" t="s">
         <v>965</v>
       </c>
-      <c r="F281" s="14" t="s">
+      <c r="F281" s="22" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A282" s="24"/>
       <c r="B282" s="25"/>
-      <c r="C282" s="13" t="s">
+      <c r="C282" s="20" t="s">
         <v>916</v>
       </c>
-      <c r="D282" s="14" t="s">
+      <c r="D282" s="21" t="s">
         <v>915</v>
       </c>
-      <c r="E282" s="14" t="s">
+      <c r="E282" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="F282" s="14" t="s">
+      <c r="F282" s="22" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A283" s="24"/>
       <c r="B283" s="25"/>
-      <c r="C283" s="13" t="s">
+      <c r="C283" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="D283" s="14" t="s">
+      <c r="D283" s="21" t="s">
         <v>917</v>
       </c>
-      <c r="E283" s="14" t="s">
+      <c r="E283" s="21" t="s">
         <v>967</v>
       </c>
-      <c r="F283" s="14" t="s">
+      <c r="F283" s="22" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="24"/>
       <c r="B284" s="25"/>
-      <c r="C284" s="13" t="s">
+      <c r="C284" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="D284" s="14" t="s">
+      <c r="D284" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="E284" s="14" t="s">
+      <c r="E284" s="21" t="s">
         <v>968</v>
       </c>
-      <c r="F284" s="14" t="s">
+      <c r="F284" s="22" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A285" s="24"/>
       <c r="B285" s="25"/>
-      <c r="C285" s="13" t="s">
+      <c r="C285" s="20" t="s">
         <v>922</v>
       </c>
-      <c r="D285" s="14" t="s">
+      <c r="D285" s="21" t="s">
         <v>921</v>
       </c>
-      <c r="E285" s="14" t="s">
+      <c r="E285" s="21" t="s">
         <v>969</v>
       </c>
-      <c r="F285" s="14" t="s">
+      <c r="F285" s="22" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="24"/>
       <c r="B286" s="25"/>
-      <c r="C286" s="13" t="s">
+      <c r="C286" s="20" t="s">
         <v>924</v>
       </c>
-      <c r="D286" s="14" t="s">
+      <c r="D286" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="E286" s="14" t="s">
+      <c r="E286" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="F286" s="14" t="s">
+      <c r="F286" s="22" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A287" s="45" t="s">
+      <c r="A287" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C287" s="13">
+      <c r="B287" s="20"/>
+      <c r="C287" s="20">
         <v>429</v>
       </c>
-      <c r="D287" s="14" t="s">
+      <c r="D287" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="E287" s="14" t="s">
+      <c r="E287" s="21" t="s">
         <v>971</v>
       </c>
-      <c r="F287" s="14" t="s">
+      <c r="F287" s="22" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="45"/>
-      <c r="C288" s="13">
+      <c r="A288" s="23"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20">
         <v>432</v>
       </c>
-      <c r="D288" s="14" t="s">
+      <c r="D288" s="21" t="s">
         <v>926</v>
       </c>
-      <c r="E288" s="14" t="s">
+      <c r="E288" s="21" t="s">
         <v>972</v>
       </c>
-      <c r="F288" s="14" t="s">
+      <c r="F288" s="22" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A289" s="45"/>
-      <c r="C289" s="13">
+      <c r="A289" s="23"/>
+      <c r="B289" s="20"/>
+      <c r="C289" s="20">
         <v>435</v>
       </c>
-      <c r="D289" s="14" t="s">
+      <c r="D289" s="21" t="s">
         <v>927</v>
       </c>
-      <c r="E289" s="14" t="s">
+      <c r="E289" s="21" t="s">
         <v>973</v>
       </c>
-      <c r="F289" s="14" t="s">
+      <c r="F289" s="22" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="45" t="s">
+      <c r="A290" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="C290" s="13">
+      <c r="B290" s="20"/>
+      <c r="C290" s="20">
         <v>445</v>
       </c>
-      <c r="D290" s="14" t="s">
+      <c r="D290" s="21" t="s">
         <v>928</v>
       </c>
-      <c r="E290" s="14" t="s">
+      <c r="E290" s="21" t="s">
         <v>974</v>
       </c>
-      <c r="F290" s="14" t="s">
+      <c r="F290" s="22" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A291" s="45" t="s">
+      <c r="A291" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C291" s="13">
+      <c r="B291" s="20"/>
+      <c r="C291" s="20">
         <v>456</v>
       </c>
-      <c r="D291" s="14" t="s">
+      <c r="D291" s="21" t="s">
         <v>929</v>
       </c>
-      <c r="E291" s="14" t="s">
+      <c r="E291" s="21" t="s">
         <v>975</v>
       </c>
-      <c r="F291" s="14" t="s">
+      <c r="F291" s="22" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A292" s="45"/>
-      <c r="C292" s="13">
+      <c r="A292" s="23"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20">
         <v>467</v>
       </c>
-      <c r="D292" s="14" t="s">
+      <c r="D292" s="21" t="s">
         <v>930</v>
       </c>
-      <c r="E292" s="14" t="s">
+      <c r="E292" s="21" t="s">
         <v>976</v>
       </c>
-      <c r="F292" s="14" t="s">
+      <c r="F292" s="22" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A293" s="45"/>
-      <c r="C293" s="13">
+      <c r="A293" s="23"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20">
         <v>470</v>
       </c>
-      <c r="D293" s="14" t="s">
+      <c r="D293" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="E293" s="14" t="s">
+      <c r="E293" s="21" t="s">
         <v>977</v>
       </c>
-      <c r="F293" s="14" t="s">
+      <c r="F293" s="22" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="45"/>
-      <c r="C294" s="13">
+      <c r="A294" s="23"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="20">
         <v>473</v>
       </c>
-      <c r="D294" s="14" t="s">
+      <c r="D294" s="21" t="s">
         <v>932</v>
       </c>
-      <c r="E294" s="14" t="s">
+      <c r="E294" s="21" t="s">
         <v>978</v>
       </c>
-      <c r="F294" s="14" t="s">
+      <c r="F294" s="22" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A295" s="45"/>
-      <c r="C295" s="13">
+      <c r="A295" s="23"/>
+      <c r="B295" s="20"/>
+      <c r="C295" s="20">
         <v>477</v>
       </c>
-      <c r="D295" s="14" t="s">
+      <c r="D295" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="E295" s="14" t="s">
+      <c r="E295" s="21" t="s">
         <v>979</v>
       </c>
-      <c r="F295" s="14" t="s">
+      <c r="F295" s="22" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A296" s="45"/>
-      <c r="C296" s="13">
+      <c r="A296" s="23"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20">
         <v>480</v>
       </c>
-      <c r="D296" s="14" t="s">
+      <c r="D296" s="21" t="s">
         <v>934</v>
       </c>
-      <c r="E296" s="14" t="s">
+      <c r="E296" s="21" t="s">
         <v>980</v>
       </c>
-      <c r="F296" s="14" t="s">
+      <c r="F296" s="22" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="24"/>
       <c r="B297" s="25"/>
-      <c r="C297" s="13" t="s">
+      <c r="C297" s="20" t="s">
         <v>936</v>
       </c>
-      <c r="D297" s="14" t="s">
+      <c r="D297" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="E297" s="14" t="s">
+      <c r="E297" s="21" t="s">
         <v>981</v>
       </c>
-      <c r="F297" s="14" t="s">
+      <c r="F297" s="22" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A298" s="24"/>
       <c r="B298" s="25"/>
-      <c r="C298" s="13" t="s">
+      <c r="C298" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="D298" s="14" t="s">
+      <c r="D298" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="E298" s="14" t="s">
+      <c r="E298" s="21" t="s">
         <v>982</v>
       </c>
-      <c r="F298" s="14" t="s">
+      <c r="F298" s="22" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="45" t="s">
+      <c r="A299" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="C299" s="13">
+      <c r="B299" s="20"/>
+      <c r="C299" s="20">
         <v>535</v>
       </c>
-      <c r="D299" s="14" t="s">
+      <c r="D299" s="21" t="s">
         <v>939</v>
       </c>
-      <c r="E299" s="14" t="s">
+      <c r="E299" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="F299" s="14" t="s">
+      <c r="F299" s="22" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="45" t="s">
+      <c r="A300" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C300" s="13">
+      <c r="B300" s="20"/>
+      <c r="C300" s="20">
         <v>544</v>
       </c>
-      <c r="D300" s="14" t="s">
+      <c r="D300" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="E300" s="14" t="s">
+      <c r="E300" s="21" t="s">
         <v>984</v>
       </c>
-      <c r="F300" s="14" t="s">
+      <c r="F300" s="22" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="24"/>
       <c r="B301" s="25"/>
-      <c r="C301" s="13" t="s">
+      <c r="C301" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="D301" s="14" t="s">
+      <c r="D301" s="21" t="s">
         <v>941</v>
       </c>
-      <c r="E301" s="14" t="s">
+      <c r="E301" s="21" t="s">
         <v>985</v>
       </c>
-      <c r="F301" s="14" t="s">
+      <c r="F301" s="22" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A302" s="45" t="s">
+      <c r="A302" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C302" s="13">
+      <c r="B302" s="20"/>
+      <c r="C302" s="20">
         <v>569</v>
       </c>
-      <c r="D302" s="14" t="s">
+      <c r="D302" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="E302" s="14" t="s">
+      <c r="E302" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="F302" s="14" t="s">
+      <c r="F302" s="22" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A303" s="24"/>
       <c r="B303" s="25"/>
-      <c r="C303" s="13" t="s">
+      <c r="C303" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="D303" s="14" t="s">
+      <c r="D303" s="21" t="s">
         <v>944</v>
       </c>
-      <c r="E303" s="14" t="s">
+      <c r="E303" s="21" t="s">
         <v>987</v>
       </c>
-      <c r="F303" s="14" t="s">
+      <c r="F303" s="22" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A304" s="24"/>
       <c r="B304" s="25"/>
-      <c r="C304" s="13" t="s">
+      <c r="C304" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="D304" s="14" t="s">
+      <c r="D304" s="21" t="s">
         <v>946</v>
       </c>
-      <c r="E304" s="14" t="s">
+      <c r="E304" s="21" t="s">
         <v>988</v>
       </c>
-      <c r="F304" s="14" t="s">
+      <c r="F304" s="22" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A305" s="24"/>
-      <c r="B305" s="25"/>
-      <c r="C305" s="13" t="s">
+    <row r="305" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="26"/>
+      <c r="B305" s="27"/>
+      <c r="C305" s="28" t="s">
         <v>949</v>
       </c>
-      <c r="D305" s="14" t="s">
+      <c r="D305" s="29" t="s">
         <v>948</v>
       </c>
-      <c r="E305" s="14" t="s">
+      <c r="E305" s="29" t="s">
         <v>989</v>
       </c>
-      <c r="F305" s="14" t="s">
+      <c r="F305" s="30" t="s">
         <v>1023</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B306" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E306" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F306" s="18" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="24"/>
+      <c r="B307" s="25"/>
+      <c r="C307" s="20" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D307" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E307" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F307" s="22" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A308" s="24"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D308" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E308" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F308" s="22" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="45"/>
+      <c r="B309" s="46"/>
+      <c r="C309" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D309" s="38" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E309" s="38" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F309" s="42" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A310" s="47" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B310" s="25" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="D310" s="21" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E310" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F310" s="22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="45"/>
+      <c r="B311" s="46"/>
+      <c r="C311" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D311" s="38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E311" s="38" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F311" s="42" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A312" s="47" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B312" s="25" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C312" s="20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D312" s="21" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E312" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F312" s="22" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="26"/>
+      <c r="B313" s="27"/>
+      <c r="C313" s="28" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D313" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E313" s="29" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F313" s="30" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A314" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B314" s="32"/>
+      <c r="C314" s="16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D314" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E314" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F314" s="18" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="45"/>
+      <c r="B315" s="46"/>
+      <c r="C315" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D315" s="38" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E315" s="38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F315" s="42" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="47" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B316" s="25"/>
+      <c r="C316" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D316" s="21" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E316" s="21" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F316" s="22" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="24"/>
+      <c r="B317" s="20"/>
+      <c r="C317" s="20">
+        <v>63</v>
+      </c>
+      <c r="D317" s="21" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E317" s="21" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F317" s="22" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="24"/>
+      <c r="B318" s="20"/>
+      <c r="C318" s="20">
+        <v>67</v>
+      </c>
+      <c r="D318" s="21" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E318" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F318" s="22" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="33"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20">
+        <v>71</v>
+      </c>
+      <c r="D319" s="21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E319" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F319" s="22" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="26"/>
+      <c r="B320" s="27"/>
+      <c r="C320" s="28" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D320" s="29" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E320" s="29" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F320" s="30" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A321" s="48" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B321" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C321" s="16">
+        <v>11</v>
+      </c>
+      <c r="D321" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E321" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F321" s="18" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="20">
+        <v>21</v>
+      </c>
+      <c r="D322" s="21" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E322" s="21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F322" s="22" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="23"/>
+      <c r="B323" s="20"/>
+      <c r="C323" s="20">
+        <v>24</v>
+      </c>
+      <c r="D323" s="21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E323" s="21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F323" s="22" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="23"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="20">
+        <v>27</v>
+      </c>
+      <c r="D324" s="21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E324" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F324" s="22" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20">
+        <v>36</v>
+      </c>
+      <c r="D325" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="E325" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="F325" s="22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="20">
+        <v>41</v>
+      </c>
+      <c r="D326" s="21" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E326" s="21" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F326" s="22" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A327" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20">
+        <v>46</v>
+      </c>
+      <c r="D327" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E327" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F327" s="22" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20">
+        <v>51</v>
+      </c>
+      <c r="D328" s="21" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E328" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F328" s="22" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A329" s="23"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20">
+        <v>54</v>
+      </c>
+      <c r="D329" s="21" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E329" s="21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F329" s="22" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20">
+        <v>60</v>
+      </c>
+      <c r="D330" s="21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E330" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F330" s="22" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A331" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20">
+        <v>107</v>
+      </c>
+      <c r="D331" s="21" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E331" s="21" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F331" s="22" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="23"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20">
+        <v>110</v>
+      </c>
+      <c r="D332" s="21" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E332" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F332" s="22" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A333" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20">
+        <v>119</v>
+      </c>
+      <c r="D333" s="21" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E333" s="21" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F333" s="22" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A334" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20">
+        <v>122</v>
+      </c>
+      <c r="D334" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E334" s="21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F334" s="22" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A335" s="49"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20">
+        <v>135</v>
+      </c>
+      <c r="D335" s="21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E335" s="21" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F335" s="22" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20">
+        <v>140</v>
+      </c>
+      <c r="D336" s="21" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E336" s="21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F336" s="22" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A337" s="23"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20">
+        <v>143</v>
+      </c>
+      <c r="D337" s="21" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E337" s="21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F337" s="22" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A338" s="23"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="20">
+        <v>146</v>
+      </c>
+      <c r="D338" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E338" s="21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F338" s="22" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A339" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20">
+        <v>156</v>
+      </c>
+      <c r="D339" s="21" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E339" s="21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F339" s="22" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="23"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="20">
+        <v>159</v>
+      </c>
+      <c r="D340" s="21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E340" s="21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F340" s="22" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A341" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="20">
+        <v>164</v>
+      </c>
+      <c r="D341" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E341" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F341" s="22" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A342" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20">
+        <v>169</v>
+      </c>
+      <c r="D342" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E342" s="21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F342" s="22" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A343" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20">
+        <v>186</v>
+      </c>
+      <c r="D343" s="21" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E343" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F343" s="22" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A344" s="23"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20">
+        <v>194</v>
+      </c>
+      <c r="D344" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E344" s="21" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F344" s="22" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="23"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="20">
+        <v>206</v>
+      </c>
+      <c r="D345" s="21" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E345" s="21" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F345" s="22" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="23"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="20">
+        <v>214</v>
+      </c>
+      <c r="D346" s="21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E346" s="21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F346" s="22" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A347" s="23"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20">
+        <v>237</v>
+      </c>
+      <c r="D347" s="21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E347" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F347" s="22" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="B348" s="28"/>
+      <c r="C348" s="28">
+        <v>254</v>
+      </c>
+      <c r="D348" s="29" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E348" s="29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F348" s="30" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A349" s="31" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B349" s="32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D349" s="17" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E349" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F349" s="18" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="24"/>
+      <c r="B350" s="25"/>
+      <c r="C350" s="20" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D350" s="21" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E350" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F350" s="22" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A351" s="24"/>
+      <c r="B351" s="25"/>
+      <c r="C351" s="20" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D351" s="21" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E351" s="21" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F351" s="22" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A352" s="24"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D352" s="21" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E352" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F352" s="22" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="24"/>
+      <c r="B353" s="25"/>
+      <c r="C353" s="20" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D353" s="21" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E353" s="21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F353" s="22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A354" s="24"/>
+      <c r="B354" s="25"/>
+      <c r="C354" s="20" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D354" s="21" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E354" s="21" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F354" s="22" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="24"/>
+      <c r="B355" s="25"/>
+      <c r="C355" s="20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D355" s="21" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E355" s="21" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F355" s="22" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="24"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="20" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D356" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E356" s="21" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F356" s="22" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="20">
+        <v>319</v>
+      </c>
+      <c r="D357" s="21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E357" s="21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F357" s="22" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="23"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="20">
+        <v>322</v>
+      </c>
+      <c r="D358" s="21" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E358" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F358" s="22" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="24"/>
+      <c r="B359" s="25"/>
+      <c r="C359" s="20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D359" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E359" s="21" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F359" s="22" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A360" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="20">
+        <v>387</v>
+      </c>
+      <c r="D360" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E360" s="21" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F360" s="22" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A361" s="23"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="20">
+        <v>390</v>
+      </c>
+      <c r="D361" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E361" s="21" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F361" s="22" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A362" s="23"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="20">
+        <v>393</v>
+      </c>
+      <c r="D362" s="21" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E362" s="21" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F362" s="22" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="23"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="20">
+        <v>396</v>
+      </c>
+      <c r="D363" s="21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E363" s="21" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F363" s="22" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="24"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D364" s="21" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E364" s="21" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F364" s="22" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="33"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="20">
+        <v>429</v>
+      </c>
+      <c r="D365" s="21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E365" s="21" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F365" s="22" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="24"/>
+      <c r="B366" s="25"/>
+      <c r="C366" s="20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D366" s="21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E366" s="21" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F366" s="22" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B367" s="20"/>
+      <c r="C367" s="20">
+        <v>483</v>
+      </c>
+      <c r="D367" s="21" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E367" s="21" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F367" s="22" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="23"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="20">
+        <v>486</v>
+      </c>
+      <c r="D368" s="21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E368" s="21" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F368" s="22" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="23"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="20">
+        <v>490</v>
+      </c>
+      <c r="D369" s="21" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E369" s="21" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F369" s="22" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="24"/>
+      <c r="B370" s="25"/>
+      <c r="C370" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D370" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E370" s="21" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F370" s="22" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="43" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B371" s="37"/>
+      <c r="C371" s="37">
+        <v>535</v>
+      </c>
+      <c r="D371" s="38" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E371" s="38" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F371" s="42" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A372" s="50" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B372" s="51" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C372" s="20">
+        <v>24</v>
+      </c>
+      <c r="D372" s="21" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E372" s="21" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F372" s="22" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A373" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B373" s="20"/>
+      <c r="C373" s="20">
+        <v>27</v>
+      </c>
+      <c r="D373" s="21" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E373" s="21" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F373" s="22" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="24"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="20">
+        <v>43</v>
+      </c>
+      <c r="D374" s="21" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E374" s="21" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F374" s="22" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="24"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="20">
+        <v>47</v>
+      </c>
+      <c r="D375" s="21" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E375" s="21" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F375" s="22" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="33"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="20">
+        <v>51</v>
+      </c>
+      <c r="D376" s="21" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E376" s="21" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F376" s="22" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B377" s="20"/>
+      <c r="C377" s="20">
+        <v>57</v>
+      </c>
+      <c r="D377" s="21" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E377" s="21" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F377" s="22" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="34"/>
+      <c r="B378" s="28"/>
+      <c r="C378" s="28">
+        <v>60</v>
+      </c>
+      <c r="D378" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E378" s="29" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F378" s="30" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A379" s="35" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C379" s="16">
+        <v>22</v>
+      </c>
+      <c r="D379" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F379" s="18" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B380" s="20"/>
+      <c r="C380" s="20">
+        <v>25</v>
+      </c>
+      <c r="D380" s="21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E380" s="21" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F380" s="22" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="24"/>
+      <c r="B381" s="25"/>
+      <c r="C381" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D381" s="21" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E381" s="21" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F381" s="22" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="24"/>
+      <c r="B382" s="25"/>
+      <c r="C382" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D382" s="21" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E382" s="21" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F382" s="22" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B383" s="20"/>
+      <c r="C383" s="20">
+        <v>67</v>
+      </c>
+      <c r="D383" s="21" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E383" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F383" s="22" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="24"/>
+      <c r="B384" s="25"/>
+      <c r="C384" s="20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D384" s="21" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E384" s="21" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F384" s="22" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="49"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="20">
+        <v>153</v>
+      </c>
+      <c r="D385" s="21" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E385" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F385" s="22" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B386" s="20"/>
+      <c r="C386" s="20">
+        <v>184</v>
+      </c>
+      <c r="D386" s="21" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E386" s="21" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F386" s="22" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A387" s="23"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="20">
+        <v>187</v>
+      </c>
+      <c r="D387" s="21" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E387" s="21" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F387" s="22" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A388" s="24"/>
+      <c r="B388" s="25"/>
+      <c r="C388" s="20" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D388" s="21" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E388" s="21" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F388" s="22" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B389" s="20"/>
+      <c r="C389" s="20">
+        <v>310</v>
+      </c>
+      <c r="D389" s="21" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E389" s="21" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F389" s="22" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B390" s="20"/>
+      <c r="C390" s="20">
+        <v>315</v>
+      </c>
+      <c r="D390" s="21" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E390" s="21" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F390" s="22" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A391" s="23"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="20">
+        <v>318</v>
+      </c>
+      <c r="D391" s="21" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E391" s="21" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F391" s="22" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A392" s="23"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="20">
+        <v>321</v>
+      </c>
+      <c r="D392" s="21" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E392" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F392" s="22" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A393" s="23"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="20">
+        <v>324</v>
+      </c>
+      <c r="D393" s="21" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E393" s="21" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F393" s="22" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="23"/>
+      <c r="B394" s="20"/>
+      <c r="C394" s="20">
+        <v>327</v>
+      </c>
+      <c r="D394" s="21" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E394" s="21" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F394" s="22" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="23"/>
+      <c r="B395" s="20"/>
+      <c r="C395" s="20">
+        <v>330</v>
+      </c>
+      <c r="D395" s="21" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E395" s="21" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F395" s="22" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A396" s="23"/>
+      <c r="B396" s="20"/>
+      <c r="C396" s="20">
+        <v>333</v>
+      </c>
+      <c r="D396" s="21" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E396" s="21" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F396" s="22" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A397" s="23"/>
+      <c r="B397" s="20"/>
+      <c r="C397" s="20">
+        <v>336</v>
+      </c>
+      <c r="D397" s="21" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E397" s="21" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F397" s="22" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A398" s="23"/>
+      <c r="B398" s="20"/>
+      <c r="C398" s="20">
+        <v>339</v>
+      </c>
+      <c r="D398" s="21" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E398" s="21" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F398" s="22" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A399" s="23"/>
+      <c r="B399" s="20"/>
+      <c r="C399" s="20">
+        <v>342</v>
+      </c>
+      <c r="D399" s="21" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E399" s="21" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F399" s="22" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A400" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B400" s="20"/>
+      <c r="C400" s="20">
+        <v>347</v>
+      </c>
+      <c r="D400" s="21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E400" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F400" s="22" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="23"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="20">
+        <v>350</v>
+      </c>
+      <c r="D401" s="21" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E401" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F401" s="22" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A402" s="23"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20">
+        <v>355</v>
+      </c>
+      <c r="D402" s="21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E402" s="21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F402" s="22" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A403" s="23"/>
+      <c r="B403" s="20"/>
+      <c r="C403" s="20">
+        <v>358</v>
+      </c>
+      <c r="D403" s="21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E403" s="21" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F403" s="22" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="23"/>
+      <c r="B404" s="20"/>
+      <c r="C404" s="20">
+        <v>405</v>
+      </c>
+      <c r="D404" s="21" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E404" s="21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F404" s="22" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="24"/>
+      <c r="B405" s="25"/>
+      <c r="C405" s="20" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D405" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E405" s="21" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F405" s="22" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A406" s="24"/>
+      <c r="B406" s="25"/>
+      <c r="C406" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D406" s="21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E406" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F406" s="22" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="24"/>
+      <c r="B407" s="25"/>
+      <c r="C407" s="20" t="s">
+        <v>938</v>
+      </c>
+      <c r="D407" s="21" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E407" s="21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F407" s="22" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="24"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="20" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D408" s="21" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E408" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F408" s="22" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="24"/>
+      <c r="B409" s="25"/>
+      <c r="C409" s="20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D409" s="21" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E409" s="21" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F409" s="22" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A410" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B410" s="20"/>
+      <c r="C410" s="20">
+        <v>560</v>
+      </c>
+      <c r="D410" s="21" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E410" s="21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F410" s="22" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="23"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="20">
+        <v>563</v>
+      </c>
+      <c r="D411" s="21" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E411" s="21" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F411" s="22" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A412" s="23"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="20">
+        <v>566</v>
+      </c>
+      <c r="D412" s="21" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E412" s="21" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F412" s="22" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A413" s="23"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="20">
+        <v>569</v>
+      </c>
+      <c r="D413" s="21" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E413" s="21" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F413" s="22" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A414" s="23"/>
+      <c r="B414" s="20"/>
+      <c r="C414" s="20">
+        <v>572</v>
+      </c>
+      <c r="D414" s="21" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E414" s="21" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F414" s="22" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A415" s="23"/>
+      <c r="B415" s="20"/>
+      <c r="C415" s="20">
+        <v>575</v>
+      </c>
+      <c r="D415" s="21" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E415" s="21" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F415" s="22" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A416" s="23"/>
+      <c r="B416" s="20"/>
+      <c r="C416" s="20">
+        <v>578</v>
+      </c>
+      <c r="D416" s="21" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E416" s="21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F416" s="22" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A417" s="23"/>
+      <c r="B417" s="20"/>
+      <c r="C417" s="20">
+        <v>581</v>
+      </c>
+      <c r="D417" s="21" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E417" s="21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F417" s="22" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A418" s="23"/>
+      <c r="B418" s="20"/>
+      <c r="C418" s="20">
+        <v>584</v>
+      </c>
+      <c r="D418" s="21" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E418" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F418" s="22" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A419" s="23"/>
+      <c r="B419" s="20"/>
+      <c r="C419" s="20">
+        <v>587</v>
+      </c>
+      <c r="D419" s="21" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E419" s="21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F419" s="22" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A420" s="24"/>
+      <c r="B420" s="25"/>
+      <c r="C420" s="20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D420" s="21" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E420" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F420" s="22" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A421" s="24"/>
+      <c r="B421" s="25"/>
+      <c r="C421" s="20" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D421" s="21" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E421" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F421" s="22" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="24"/>
+      <c r="B422" s="20"/>
+      <c r="C422" s="20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D422" s="21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E422" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F422" s="22" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="33"/>
+      <c r="B423" s="20"/>
+      <c r="C423" s="20">
+        <v>640</v>
+      </c>
+      <c r="D423" s="21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E423" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F423" s="22" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A424" s="24"/>
+      <c r="B424" s="20"/>
+      <c r="C424" s="20" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D424" s="21" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E424" s="21" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F424" s="22" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="33"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="20">
+        <v>655</v>
+      </c>
+      <c r="D425" s="21" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E425" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F425" s="22" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="24"/>
+      <c r="B426" s="25"/>
+      <c r="C426" s="20" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D426" s="21" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E426" s="21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F426" s="22" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="24"/>
+      <c r="B427" s="25"/>
+      <c r="C427" s="20" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D427" s="21" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E427" s="21" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F427" s="22" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A428" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B428" s="20"/>
+      <c r="C428" s="20">
+        <v>740</v>
+      </c>
+      <c r="D428" s="21" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E428" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F428" s="22" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="24"/>
+      <c r="B429" s="25"/>
+      <c r="C429" s="20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D429" s="21" t="s">
+        <v>939</v>
+      </c>
+      <c r="E429" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="F429" s="22" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A430" s="24"/>
+      <c r="B430" s="25"/>
+      <c r="C430" s="20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D430" s="21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E430" s="21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F430" s="22" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A431" s="24"/>
+      <c r="B431" s="25"/>
+      <c r="C431" s="20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D431" s="21" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E431" s="21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F431" s="22" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B432" s="20"/>
+      <c r="C432" s="20">
+        <v>820</v>
+      </c>
+      <c r="D432" s="21" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E432" s="21" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F432" s="22" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A433" s="23"/>
+      <c r="B433" s="20"/>
+      <c r="C433" s="20">
+        <v>823</v>
+      </c>
+      <c r="D433" s="21" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E433" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F433" s="22" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A434" s="23"/>
+      <c r="B434" s="20"/>
+      <c r="C434" s="20">
+        <v>826</v>
+      </c>
+      <c r="D434" s="21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E434" s="21" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F434" s="22" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A435" s="23"/>
+      <c r="B435" s="20"/>
+      <c r="C435" s="20">
+        <v>829</v>
+      </c>
+      <c r="D435" s="21" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E435" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F435" s="22" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A436" s="23"/>
+      <c r="B436" s="20"/>
+      <c r="C436" s="20">
+        <v>839</v>
+      </c>
+      <c r="D436" s="21" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E436" s="21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F436" s="22" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="24"/>
+      <c r="B437" s="25"/>
+      <c r="C437" s="20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D437" s="21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E437" s="21" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F437" s="22" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A438" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="20">
+        <v>874</v>
+      </c>
+      <c r="D438" s="21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E438" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F438" s="22" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A439" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B439" s="20"/>
+      <c r="C439" s="20">
+        <v>882</v>
+      </c>
+      <c r="D439" s="21" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E439" s="21" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F439" s="22" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="24"/>
+      <c r="B440" s="25"/>
+      <c r="C440" s="20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D440" s="21" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E440" s="21" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F440" s="22" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B441" s="20"/>
+      <c r="C441" s="20">
+        <v>956</v>
+      </c>
+      <c r="D441" s="21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E441" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F441" s="22" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B442" s="20"/>
+      <c r="C442" s="20">
+        <v>961</v>
+      </c>
+      <c r="D442" s="21" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E442" s="21" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F442" s="22" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B443" s="20"/>
+      <c r="C443" s="20">
+        <v>966</v>
+      </c>
+      <c r="D443" s="21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E443" s="21" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F443" s="22" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" s="24"/>
+      <c r="B444" s="25"/>
+      <c r="C444" s="20" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D444" s="21" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E444" s="21" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F444" s="22" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A445" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B445" s="20"/>
+      <c r="C445" s="20">
+        <v>993</v>
+      </c>
+      <c r="D445" s="21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E445" s="21" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F445" s="22" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A446" s="23"/>
+      <c r="B446" s="20"/>
+      <c r="C446" s="20">
+        <v>996</v>
+      </c>
+      <c r="D446" s="21" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E446" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F446" s="22" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B447" s="20"/>
+      <c r="C447" s="20">
+        <v>1001</v>
+      </c>
+      <c r="D447" s="21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E447" s="21" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F447" s="22" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B448" s="20"/>
+      <c r="C448" s="20">
+        <v>1010</v>
+      </c>
+      <c r="D448" s="21" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E448" s="21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F448" s="22" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A449" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B449" s="20"/>
+      <c r="C449" s="20">
+        <v>1015</v>
+      </c>
+      <c r="D449" s="21" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E449" s="21" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F449" s="22" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A450" s="23"/>
+      <c r="B450" s="20"/>
+      <c r="C450" s="20">
+        <v>1018</v>
+      </c>
+      <c r="D450" s="21" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E450" s="21" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F450" s="22" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" s="23"/>
+      <c r="B451" s="20"/>
+      <c r="C451" s="20">
+        <v>1021</v>
+      </c>
+      <c r="D451" s="21" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E451" s="21" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F451" s="22" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" s="23"/>
+      <c r="B452" s="20"/>
+      <c r="C452" s="20">
+        <v>1030</v>
+      </c>
+      <c r="D452" s="21" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E452" s="21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F452" s="22" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="23"/>
+      <c r="B453" s="20"/>
+      <c r="C453" s="20">
+        <v>1035</v>
+      </c>
+      <c r="D453" s="21" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E453" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F453" s="22" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A454" s="24"/>
+      <c r="B454" s="25"/>
+      <c r="C454" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D454" s="21" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E454" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F454" s="22" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A455" s="24"/>
+      <c r="B455" s="25"/>
+      <c r="C455" s="20" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D455" s="21" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E455" s="21" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F455" s="22" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" s="20"/>
+      <c r="C456" s="20">
+        <v>1106</v>
+      </c>
+      <c r="D456" s="21" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E456" s="21" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F456" s="22" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A457" s="23"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="20">
+        <v>1109</v>
+      </c>
+      <c r="D457" s="21" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E457" s="21" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F457" s="22" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="34"/>
+      <c r="B458" s="28"/>
+      <c r="C458" s="28">
+        <v>1131</v>
+      </c>
+      <c r="D458" s="29" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E458" s="29" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F458" s="30" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A459" s="35" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B459" s="16" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C459" s="16">
+        <v>20</v>
+      </c>
+      <c r="D459" s="17" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E459" s="17" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F459" s="18" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="20">
+        <v>34</v>
+      </c>
+      <c r="D460" s="21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E460" s="21" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F460" s="22" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A461" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="20">
+        <v>42</v>
+      </c>
+      <c r="D461" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E461" s="21" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F461" s="22" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A462" s="23"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="20">
+        <v>45</v>
+      </c>
+      <c r="D462" s="21" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E462" s="21" t="s">
+        <v>1595</v>
+      </c>
+      <c r="F462" s="22" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" s="23"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="20">
+        <v>48</v>
+      </c>
+      <c r="D463" s="21" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E463" s="21" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F463" s="22" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" s="24"/>
+      <c r="B464" s="25"/>
+      <c r="C464" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D464" s="21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E464" s="21" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F464" s="22" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A465" s="24"/>
+      <c r="B465" s="25"/>
+      <c r="C465" s="20" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D465" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E465" s="21" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F465" s="22" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="24"/>
+      <c r="B466" s="25"/>
+      <c r="C466" s="20" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D466" s="21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E466" s="21" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F466" s="22" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B467" s="20"/>
+      <c r="C467" s="20">
+        <v>120</v>
+      </c>
+      <c r="D467" s="21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E467" s="21" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F467" s="22" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B468" s="20"/>
+      <c r="C468" s="20">
+        <v>129</v>
+      </c>
+      <c r="D468" s="21" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E468" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F468" s="22" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A469" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B469" s="20"/>
+      <c r="C469" s="20">
+        <v>134</v>
+      </c>
+      <c r="D469" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E469" s="21" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F469" s="22" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A470" s="23"/>
+      <c r="B470" s="20"/>
+      <c r="C470" s="20">
+        <v>137</v>
+      </c>
+      <c r="D470" s="21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E470" s="21" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F470" s="22" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A471" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B471" s="20"/>
+      <c r="C471" s="20">
+        <v>145</v>
+      </c>
+      <c r="D471" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E471" s="21" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F471" s="22" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A472" s="23"/>
+      <c r="B472" s="20"/>
+      <c r="C472" s="20">
+        <v>148</v>
+      </c>
+      <c r="D472" s="21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E472" s="21" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F472" s="22" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="23"/>
+      <c r="B473" s="20"/>
+      <c r="C473" s="20">
+        <v>151</v>
+      </c>
+      <c r="D473" s="21" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E473" s="21" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F473" s="22" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A474" s="23"/>
+      <c r="B474" s="20"/>
+      <c r="C474" s="20">
+        <v>154</v>
+      </c>
+      <c r="D474" s="21" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E474" s="21" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F474" s="22" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A475" s="23"/>
+      <c r="B475" s="20"/>
+      <c r="C475" s="20">
+        <v>157</v>
+      </c>
+      <c r="D475" s="21" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E475" s="21" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F475" s="22" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A476" s="24"/>
+      <c r="B476" s="25"/>
+      <c r="C476" s="20" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D476" s="21" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E476" s="21" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F476" s="22" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A477" s="24"/>
+      <c r="B477" s="25"/>
+      <c r="C477" s="20" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D477" s="21" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E477" s="21" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F477" s="22" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" s="24"/>
+      <c r="B478" s="25"/>
+      <c r="C478" s="20" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D478" s="21" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E478" s="21" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F478" s="22" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A479" s="24"/>
+      <c r="B479" s="25"/>
+      <c r="C479" s="20" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D479" s="21" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E479" s="21" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F479" s="22" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A480" s="24"/>
+      <c r="B480" s="25"/>
+      <c r="C480" s="52">
+        <v>249</v>
+      </c>
+      <c r="D480" s="21" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E480" s="21" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F480" s="22" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A481" s="24"/>
+      <c r="B481" s="25"/>
+      <c r="C481" s="40">
+        <v>253</v>
+      </c>
+      <c r="D481" s="21" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E481" s="21" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F481" s="22" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A482" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B482" s="20"/>
+      <c r="C482" s="20">
+        <v>268</v>
+      </c>
+      <c r="D482" s="21" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E482" s="21" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F482" s="22" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A483" s="23"/>
+      <c r="B483" s="20"/>
+      <c r="C483" s="20">
+        <v>271</v>
+      </c>
+      <c r="D483" s="21" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E483" s="21" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F483" s="22" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A484" s="24"/>
+      <c r="B484" s="25"/>
+      <c r="C484" s="20" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D484" s="21" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E484" s="21" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F484" s="22" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A485" s="24"/>
+      <c r="B485" s="25"/>
+      <c r="C485" s="20" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D485" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E485" s="21" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F485" s="22" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A486" s="24"/>
+      <c r="B486" s="25"/>
+      <c r="C486" s="52">
+        <v>329</v>
+      </c>
+      <c r="D486" s="21" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E486" s="21" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F486" s="22" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A487" s="24"/>
+      <c r="B487" s="25"/>
+      <c r="C487" s="40">
+        <v>333</v>
+      </c>
+      <c r="D487" s="21" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E487" s="21" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F487" s="22" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A488" s="24"/>
+      <c r="B488" s="25"/>
+      <c r="C488" s="52">
+        <v>339</v>
+      </c>
+      <c r="D488" s="21" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E488" s="21" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F488" s="22" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A489" s="24"/>
+      <c r="B489" s="25"/>
+      <c r="C489" s="40">
+        <v>343</v>
+      </c>
+      <c r="D489" s="21" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E489" s="21" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F489" s="22" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A490" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B490" s="20"/>
+      <c r="C490" s="20">
+        <v>357</v>
+      </c>
+      <c r="D490" s="21" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E490" s="21" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F490" s="22" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A491" s="23"/>
+      <c r="B491" s="20"/>
+      <c r="C491" s="20">
+        <v>360</v>
+      </c>
+      <c r="D491" s="21" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E491" s="21" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F491" s="22" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A492" s="24"/>
+      <c r="B492" s="25"/>
+      <c r="C492" s="20" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D492" s="21" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E492" s="21" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F492" s="22" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="24"/>
+      <c r="B493" s="25"/>
+      <c r="C493" s="20" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D493" s="21" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E493" s="21" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F493" s="22" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A494" s="24"/>
+      <c r="B494" s="25"/>
+      <c r="C494" s="20" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D494" s="21" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E494" s="21" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F494" s="22" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A495" s="24"/>
+      <c r="B495" s="25"/>
+      <c r="C495" s="20" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D495" s="21" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E495" s="21" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F495" s="22" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A496" s="39"/>
+      <c r="B496" s="40"/>
+      <c r="C496" s="20" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D496" s="21" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E496" s="21" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F496" s="22" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A497" s="39"/>
+      <c r="B497" s="40"/>
+      <c r="C497" s="20" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D497" s="21" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E497" s="21" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F497" s="22" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A498" s="39"/>
+      <c r="B498" s="40"/>
+      <c r="C498" s="20" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D498" s="21" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E498" s="21" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F498" s="22" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A499" s="24"/>
+      <c r="B499" s="25"/>
+      <c r="C499" s="20" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D499" s="21" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E499" s="21" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F499" s="22" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A500" s="26"/>
+      <c r="B500" s="27"/>
+      <c r="C500" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="D500" s="29" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E500" s="29" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F500" s="30" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A501" s="31" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B501" s="32" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C501" s="16" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D501" s="17" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E501" s="17" t="s">
+        <v>1754</v>
+      </c>
+      <c r="F501" s="18" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A502" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B502" s="52"/>
+      <c r="C502" s="20">
+        <v>45</v>
+      </c>
+      <c r="D502" s="21" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E502" s="21" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F502" s="22" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A503" s="23"/>
+      <c r="B503" s="40"/>
+      <c r="C503" s="20">
+        <v>49</v>
+      </c>
+      <c r="D503" s="21" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E503" s="21" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F503" s="22" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A504" s="23"/>
+      <c r="B504" s="52"/>
+      <c r="C504" s="20">
+        <v>55</v>
+      </c>
+      <c r="D504" s="21" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E504" s="21" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F504" s="22" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A505" s="23"/>
+      <c r="B505" s="40"/>
+      <c r="C505" s="20">
+        <v>59</v>
+      </c>
+      <c r="D505" s="21" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E505" s="21" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F505" s="22" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A506" s="24"/>
+      <c r="B506" s="25"/>
+      <c r="C506" s="20" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D506" s="21" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E506" s="21" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F506" s="22" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A507" s="24"/>
+      <c r="B507" s="25"/>
+      <c r="C507" s="20" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D507" s="21" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E507" s="21" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F507" s="22" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A508" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B508" s="20"/>
+      <c r="C508" s="20">
+        <v>108</v>
+      </c>
+      <c r="D508" s="21" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E508" s="21" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F508" s="22" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A509" s="23"/>
+      <c r="B509" s="52"/>
+      <c r="C509" s="20">
+        <v>131</v>
+      </c>
+      <c r="D509" s="21" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E509" s="21" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F509" s="22" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A510" s="23"/>
+      <c r="B510" s="40"/>
+      <c r="C510" s="20">
+        <v>135</v>
+      </c>
+      <c r="D510" s="21" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E510" s="21" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F510" s="22" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A511" s="24"/>
+      <c r="B511" s="25"/>
+      <c r="C511" s="20" t="s">
+        <v>899</v>
+      </c>
+      <c r="D511" s="21" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E511" s="21" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F511" s="22" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A512" s="24"/>
+      <c r="B512" s="25"/>
+      <c r="C512" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="D512" s="21" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E512" s="21" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F512" s="22" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="24"/>
+      <c r="B513" s="25"/>
+      <c r="C513" s="53">
+        <v>179</v>
+      </c>
+      <c r="D513" s="21" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E513" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F513" s="22" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A514" s="24"/>
+      <c r="B514" s="25"/>
+      <c r="C514" s="40">
+        <v>183</v>
+      </c>
+      <c r="D514" s="21" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E514" s="21" t="s">
+        <v>1765</v>
+      </c>
+      <c r="F514" s="22" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A515" s="24"/>
+      <c r="B515" s="25"/>
+      <c r="C515" s="20" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D515" s="21" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E515" s="21" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F515" s="22" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A516" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B516" s="20"/>
+      <c r="C516" s="20">
+        <v>203</v>
+      </c>
+      <c r="D516" s="21" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E516" s="21" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F516" s="22" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A517" s="23"/>
+      <c r="B517" s="20"/>
+      <c r="C517" s="20">
+        <v>211</v>
+      </c>
+      <c r="D517" s="21" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E517" s="21" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F517" s="22" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A518" s="23"/>
+      <c r="B518" s="20"/>
+      <c r="C518" s="20">
+        <v>214</v>
+      </c>
+      <c r="D518" s="21" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E518" s="21" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F518" s="22" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A519" s="23"/>
+      <c r="B519" s="20"/>
+      <c r="C519" s="20">
+        <v>217</v>
+      </c>
+      <c r="D519" s="21" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E519" s="21" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F519" s="22" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A520" s="44"/>
+      <c r="B520" s="20"/>
+      <c r="C520" s="20">
+        <v>225</v>
+      </c>
+      <c r="D520" s="21" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E520" s="21" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F520" s="22" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A521" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B521" s="20"/>
+      <c r="C521" s="20">
+        <v>239</v>
+      </c>
+      <c r="D521" s="21" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E521" s="21" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F521" s="22" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A522" s="23"/>
+      <c r="B522" s="20"/>
+      <c r="C522" s="20">
+        <v>242</v>
+      </c>
+      <c r="D522" s="21" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E522" s="21" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F522" s="22" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A523" s="24"/>
+      <c r="B523" s="25"/>
+      <c r="C523" s="20" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D523" s="21" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E523" s="21" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F523" s="22" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A524" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B524" s="20"/>
+      <c r="C524" s="20">
+        <v>278</v>
+      </c>
+      <c r="D524" s="21" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E524" s="21" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F524" s="22" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A525" s="23"/>
+      <c r="B525" s="20"/>
+      <c r="C525" s="20">
+        <v>282</v>
+      </c>
+      <c r="D525" s="21" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E525" s="21" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F525" s="22" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A526" s="39"/>
+      <c r="B526" s="40"/>
+      <c r="C526" s="20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D526" s="21" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E526" s="21" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F526" s="22" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A527" s="39"/>
+      <c r="B527" s="20"/>
+      <c r="C527" s="20">
+        <v>307</v>
+      </c>
+      <c r="D527" s="21" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E527" s="21" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F527" s="22" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A528" s="54"/>
+      <c r="B528" s="20"/>
+      <c r="C528" s="20">
+        <v>311</v>
+      </c>
+      <c r="D528" s="21" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E528" s="21" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F528" s="22" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A529" s="39"/>
+      <c r="B529" s="40"/>
+      <c r="C529" s="20" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D529" s="21" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E529" s="21" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F529" s="22" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A530" s="39"/>
+      <c r="B530" s="40"/>
+      <c r="C530" s="20" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D530" s="21" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E530" s="21" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F530" s="22" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A531" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B531" s="20"/>
+      <c r="C531" s="20">
+        <v>337</v>
+      </c>
+      <c r="D531" s="21" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E531" s="21" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F531" s="22" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A532" s="23"/>
+      <c r="B532" s="20"/>
+      <c r="C532" s="20">
+        <v>340</v>
+      </c>
+      <c r="D532" s="21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E532" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F532" s="22" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A533" s="23"/>
+      <c r="B533" s="20"/>
+      <c r="C533" s="20">
+        <v>343</v>
+      </c>
+      <c r="D533" s="21" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E533" s="21" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F533" s="22" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A534" s="24"/>
+      <c r="B534" s="25"/>
+      <c r="C534" s="20" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D534" s="21" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E534" s="21" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F534" s="22" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A535" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B535" s="20"/>
+      <c r="C535" s="20">
+        <v>371</v>
+      </c>
+      <c r="D535" s="21" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E535" s="21" t="s">
+        <v>1785</v>
+      </c>
+      <c r="F535" s="22" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A536" s="23"/>
+      <c r="B536" s="20"/>
+      <c r="C536" s="20">
+        <v>374</v>
+      </c>
+      <c r="D536" s="21" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E536" s="21" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F536" s="22" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A537" s="24"/>
+      <c r="B537" s="25"/>
+      <c r="C537" s="20" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D537" s="21" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E537" s="21" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F537" s="22" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A538" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B538" s="20"/>
+      <c r="C538" s="20">
+        <v>395</v>
+      </c>
+      <c r="D538" s="21" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E538" s="21" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F538" s="22" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="23"/>
+      <c r="B539" s="20"/>
+      <c r="C539" s="20">
+        <v>398</v>
+      </c>
+      <c r="D539" s="21" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E539" s="21" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F539" s="22" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A540" s="23"/>
+      <c r="B540" s="20"/>
+      <c r="C540" s="20">
+        <v>401</v>
+      </c>
+      <c r="D540" s="21" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E540" s="21" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F540" s="22" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A541" s="23"/>
+      <c r="B541" s="20"/>
+      <c r="C541" s="20">
+        <v>404</v>
+      </c>
+      <c r="D541" s="21" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E541" s="21" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F541" s="22" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A542" s="23"/>
+      <c r="B542" s="20"/>
+      <c r="C542" s="20">
+        <v>407</v>
+      </c>
+      <c r="D542" s="21" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E542" s="21" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F542" s="22" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A543" s="24"/>
+      <c r="B543" s="25"/>
+      <c r="C543" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="D543" s="21" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E543" s="21" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F543" s="22" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A544" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B544" s="20"/>
+      <c r="C544" s="20">
+        <v>450</v>
+      </c>
+      <c r="D544" s="21" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E544" s="21" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F544" s="22" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A545" s="23"/>
+      <c r="B545" s="20"/>
+      <c r="C545" s="20">
+        <v>453</v>
+      </c>
+      <c r="D545" s="21" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E545" s="21" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F545" s="22" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A546" s="23"/>
+      <c r="B546" s="20"/>
+      <c r="C546" s="20">
+        <v>456</v>
+      </c>
+      <c r="D546" s="21" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E546" s="21" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F546" s="22" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A547" s="24"/>
+      <c r="B547" s="25"/>
+      <c r="C547" s="20" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D547" s="21" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E547" s="21" t="s">
+        <v>1797</v>
+      </c>
+      <c r="F547" s="22" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A548" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B548" s="20"/>
+      <c r="C548" s="20">
+        <v>481</v>
+      </c>
+      <c r="D548" s="21" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E548" s="21" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F548" s="22" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A549" s="23"/>
+      <c r="B549" s="20"/>
+      <c r="C549" s="20">
+        <v>484</v>
+      </c>
+      <c r="D549" s="21" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E549" s="21" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F549" s="22" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A550" s="23"/>
+      <c r="B550" s="20"/>
+      <c r="C550" s="20">
+        <v>487</v>
+      </c>
+      <c r="D550" s="21" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E550" s="21" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F550" s="22" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A551" s="23"/>
+      <c r="B551" s="20"/>
+      <c r="C551" s="20">
+        <v>494</v>
+      </c>
+      <c r="D551" s="21" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E551" s="21" t="s">
+        <v>1801</v>
+      </c>
+      <c r="F551" s="22" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A552" s="24"/>
+      <c r="B552" s="25"/>
+      <c r="C552" s="20" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D552" s="21" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E552" s="21" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F552" s="22" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A553" s="24"/>
+      <c r="B553" s="25"/>
+      <c r="C553" s="20" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D553" s="21" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E553" s="21" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F553" s="22" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="24"/>
+      <c r="B554" s="25"/>
+      <c r="C554" s="20" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D554" s="21" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E554" s="21" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F554" s="22" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A555" s="24"/>
+      <c r="B555" s="25"/>
+      <c r="C555" s="20" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D555" s="21" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E555" s="21" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F555" s="22" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A556" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B556" s="20"/>
+      <c r="C556" s="20">
+        <v>713</v>
+      </c>
+      <c r="D556" s="21" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E556" s="21" t="s">
+        <v>1806</v>
+      </c>
+      <c r="F556" s="22" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A557" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B557" s="20"/>
+      <c r="C557" s="20">
+        <v>730</v>
+      </c>
+      <c r="D557" s="21" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E557" s="21" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F557" s="22" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A558" s="24"/>
+      <c r="B558" s="25"/>
+      <c r="C558" s="20" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D558" s="21" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E558" s="21" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F558" s="22" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A559" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B559" s="20"/>
+      <c r="C559" s="20">
+        <v>802</v>
+      </c>
+      <c r="D559" s="21" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E559" s="21" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F559" s="22" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A560" s="24"/>
+      <c r="B560" s="25"/>
+      <c r="C560" s="20" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D560" s="21" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E560" s="21" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F560" s="22" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A561" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="20">
+        <v>835</v>
+      </c>
+      <c r="D561" s="21" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E561" s="21" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F561" s="22" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A562" s="23"/>
+      <c r="B562" s="20"/>
+      <c r="C562" s="20">
+        <v>838</v>
+      </c>
+      <c r="D562" s="21" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E562" s="21" t="s">
+        <v>1812</v>
+      </c>
+      <c r="F562" s="22" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A563" s="24"/>
+      <c r="B563" s="25"/>
+      <c r="C563" s="20" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D563" s="21" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E563" s="21" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F563" s="22" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A564" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B564" s="20"/>
+      <c r="C564" s="20">
+        <v>870</v>
+      </c>
+      <c r="D564" s="21" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E564" s="21" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F564" s="22" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A565" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B565" s="28"/>
+      <c r="C565" s="28">
+        <v>879</v>
+      </c>
+      <c r="D565" s="29" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E565" s="29" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F565" s="30" t="s">
+        <v>1876</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Сюжетные сцены/Глава 10.xlsx
+++ b/Texts/Сюжетные сцены/Глава 10.xlsx
@@ -681,9 +681,6 @@
     <t xml:space="preserve"> Если вы захотите у меня\nчто-нибудь узнать, обращайтесь.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Да-да! Да нас это честь!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Оооо! Я так рада, что встретила\nвас!</t>
   </si>
   <si>
@@ -942,9 +939,6 @@
     <t xml:space="preserve"> Åòìé âú èàöïóéóå ô íåîÿ\nœóï-îéáôäû ôèîàóû, ïáñàþàêóåòû.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Äà-äà! Äà îàò üóï œåòóû!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ïïïï! Ÿ óàë ñàäà, œóï âòóñåóéìà\nâàò!</t>
   </si>
   <si>
@@ -4881,12 +4875,6 @@
     <t xml:space="preserve"> Видите ли, прикасаясь к\nкому-либо или к чему-либо, моя спутница\nиногда может почувствовать головокружение.</t>
   </si>
   <si>
-    <t xml:space="preserve"> И затем он начинает видеть\nили слышать события, которые могут\nслучаться как в прошлом, так и в будущем!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> И затем она начинает видеть\nили слышать события, которые могут\nслучаться как в прошлом, так и в будущем!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Что?![K] Ну, это же...[K] Это...</t>
   </si>
   <si>
@@ -5001,12 +4989,6 @@
     <t xml:space="preserve"> Âéäéóå ìé, ðñéëàòàÿòû ë\nëïíô-ìéáï éìé ë œåíô-ìéáï, íïÿ òðôóîéøà\néîïãäà íïçåó ðïœôâòóâïâàóû ãïìïâïëñôçåîéå.</t>
   </si>
   <si>
-    <t xml:space="preserve"> É èàóåí ïî îàœéîàåó âéäåóû\néìé òìúšàóû òïáúóéÿ, ëïóïñúå íïãôó\nòìôœàóûòÿ ëàë â ðñïšìïí, óàë é â áôäôþåí!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> É èàóåí ïîà îàœéîàåó âéäåóû\néìé òìúšàóû òïáúóéÿ, ëïóïñúå íïãôó\nòìôœàóûòÿ ëàë â ðñïšìïí, óàë é â áôäôþåí!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Œóï?![K] Îô, üóï çå...[K] Üóï...</t>
   </si>
   <si>
@@ -5665,6 +5647,24 @@
   </si>
   <si>
     <t xml:space="preserve"> ...é ðàíÿóû ï çéèîé\nœåìïâåëà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да-да! Для нас это честь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà-äà! Äìÿ îàò üóï œåòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И затем он начинает видеть\nили слышать события, которые происходили\nв прошлом! Или произойдут в будущем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И затем она начинает видеть\nили слышать события, которые происходили\nв прошлом! Или произойдут в будущем!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É èàóåí ïî îàœéîàåó âéäåóû\néìé òìúšàóû òïáúóéÿ, ëïóïñúå ðñïéòöïäéìé\nâ ðñïšìïí! Éìé ðñïéèïêäôó â áôäôþåí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É èàóåí ïîà îàœéîàåó âéäåóû\néìé òìúšàóû òïáúóéÿ, ëïóïñúå ðñïéòöïäéìé\nâ ðñïšìïí! Éìé ðñïéèïêäôó â áôäôþåí!</t>
   </si>
 </sst>
 </file>
@@ -6376,8 +6376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D508" sqref="D508"/>
+    <sheetView tabSelected="1" topLeftCell="A481" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D485" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6534,7 +6534,7 @@
         <v>142</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>12</v>
@@ -6553,7 +6553,7 @@
         <v>143</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>13</v>
@@ -6574,7 +6574,7 @@
         <v>144</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
@@ -6590,7 +6590,7 @@
         <v>145</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
@@ -6608,7 +6608,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6624,7 +6624,7 @@
         <v>147</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
@@ -6642,7 +6642,7 @@
         <v>148</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6660,7 +6660,7 @@
         <v>149</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
@@ -6678,7 +6678,7 @@
         <v>150</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
@@ -6694,7 +6694,7 @@
         <v>151</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6710,7 +6710,7 @@
         <v>152</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6726,7 +6726,7 @@
         <v>153</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6742,7 +6742,7 @@
         <v>154</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6758,7 +6758,7 @@
         <v>155</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6774,7 +6774,7 @@
         <v>156</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6790,7 +6790,7 @@
         <v>157</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6806,7 +6806,7 @@
         <v>158</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6822,7 +6822,7 @@
         <v>159</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6840,7 +6840,7 @@
         <v>160</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6856,7 +6856,7 @@
         <v>161</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -6874,7 +6874,7 @@
         <v>162</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6892,7 +6892,7 @@
         <v>163</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -6910,7 +6910,7 @@
         <v>164</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
         <v>165</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6944,7 +6944,7 @@
         <v>166</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -6960,7 +6960,7 @@
         <v>167</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -6976,7 +6976,7 @@
         <v>168</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -6994,7 +6994,7 @@
         <v>169</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -7010,7 +7010,7 @@
         <v>170</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7028,7 +7028,7 @@
         <v>171</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -7044,7 +7044,7 @@
         <v>172</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -7060,7 +7060,7 @@
         <v>173</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7076,7 +7076,7 @@
         <v>174</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -7094,7 +7094,7 @@
         <v>175</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -7110,7 +7110,7 @@
         <v>176</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7126,7 +7126,7 @@
         <v>177</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7142,7 +7142,7 @@
         <v>178</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7158,7 +7158,7 @@
         <v>179</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7176,7 +7176,7 @@
         <v>180</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7192,7 +7192,7 @@
         <v>181</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -7208,7 +7208,7 @@
         <v>182</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7226,7 +7226,7 @@
         <v>183</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7242,7 +7242,7 @@
         <v>184</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7258,7 +7258,7 @@
         <v>185</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -7274,7 +7274,7 @@
         <v>186</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -7292,7 +7292,7 @@
         <v>187</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7308,7 +7308,7 @@
         <v>188</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7324,7 +7324,7 @@
         <v>189</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7340,7 +7340,7 @@
         <v>190</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7356,7 +7356,7 @@
         <v>191</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7372,7 +7372,7 @@
         <v>192</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7386,7 +7386,7 @@
         <v>193</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -7402,7 +7402,7 @@
         <v>194</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -7418,7 +7418,7 @@
         <v>195</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7436,7 +7436,7 @@
         <v>196</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7452,7 +7452,7 @@
         <v>197</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7470,7 +7470,7 @@
         <v>198</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7488,7 +7488,7 @@
         <v>199</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7506,7 +7506,7 @@
         <v>200</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7522,7 +7522,7 @@
         <v>201</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7540,7 +7540,7 @@
         <v>202</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -7558,7 +7558,7 @@
         <v>203</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7574,7 +7574,7 @@
         <v>204</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7590,7 +7590,7 @@
         <v>205</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7606,7 +7606,7 @@
         <v>206</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -7622,7 +7622,7 @@
         <v>207</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7640,7 +7640,7 @@
         <v>208</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7656,7 +7656,7 @@
         <v>209</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7672,7 +7672,7 @@
         <v>210</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7688,7 +7688,7 @@
         <v>211</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7701,10 +7701,10 @@
         <v>124</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7720,7 +7720,7 @@
         <v>212</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7736,7 +7736,7 @@
         <v>213</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7754,7 +7754,7 @@
         <v>214</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7770,7 +7770,7 @@
         <v>215</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7788,7 +7788,7 @@
         <v>216</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7804,7 +7804,7 @@
         <v>217</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7820,7 +7820,7 @@
         <v>218</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7836,7 +7836,7 @@
         <v>219</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -7851,10 +7851,10 @@
         <v>133</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>220</v>
+        <v>1876</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>307</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7869,10 +7869,10 @@
         <v>134</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7887,10 +7887,10 @@
         <v>135</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7905,10 +7905,10 @@
         <v>136</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7921,10 +7921,10 @@
         <v>137</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -7939,10 +7939,10 @@
         <v>138</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7955,10 +7955,10 @@
         <v>139</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7971,10 +7971,10 @@
         <v>140</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7987,48 +7987,48 @@
         <v>141</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F94" s="30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C95" s="16">
         <v>50</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="20">
         <v>71</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8038,13 +8038,13 @@
         <v>74</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8054,13 +8054,13 @@
         <v>77</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8070,49 +8070,49 @@
         <v>96</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="20">
         <v>112</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="20">
         <v>117</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8122,75 +8122,75 @@
         <v>120</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="20">
         <v>138</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="20">
         <v>143</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="34" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B105" s="28"/>
       <c r="C105" s="28">
         <v>149</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C106" s="16">
         <v>19</v>
@@ -8199,10 +8199,10 @@
         <v>138</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8214,13 +8214,13 @@
         <v>37</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8230,29 +8230,29 @@
         <v>40</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="24"/>
       <c r="B109" s="25"/>
       <c r="C109" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -8264,13 +8264,13 @@
         <v>69</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8280,45 +8280,45 @@
         <v>72</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A112" s="24"/>
       <c r="B112" s="25"/>
       <c r="C112" s="20" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A113" s="24"/>
       <c r="B113" s="25"/>
       <c r="C113" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -8330,13 +8330,13 @@
         <v>107</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8346,13 +8346,13 @@
         <v>110</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8362,13 +8362,13 @@
         <v>113</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8378,13 +8378,13 @@
         <v>116</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8394,13 +8394,13 @@
         <v>119</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8410,29 +8410,29 @@
         <v>122</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A120" s="24"/>
       <c r="B120" s="25"/>
       <c r="C120" s="20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -8444,29 +8444,29 @@
         <v>146</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A122" s="24"/>
       <c r="B122" s="25"/>
       <c r="C122" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8478,33 +8478,33 @@
         <v>170</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="B124" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="B124" s="32" t="s">
-        <v>418</v>
-      </c>
       <c r="C124" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8516,61 +8516,61 @@
         <v>91</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="24"/>
       <c r="B126" s="25"/>
       <c r="C126" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A127" s="24"/>
       <c r="B127" s="25"/>
       <c r="C127" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24"/>
       <c r="B128" s="25"/>
       <c r="C128" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8582,31 +8582,31 @@
         <v>145</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="20">
         <v>150</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8616,13 +8616,13 @@
         <v>166</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8632,63 +8632,63 @@
         <v>169</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E132" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="24"/>
       <c r="B133" s="25"/>
       <c r="C133" s="20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A134" s="24"/>
       <c r="B134" s="25"/>
       <c r="C134" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E134" s="21" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A135" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="20">
         <v>204</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E135" s="21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8698,63 +8698,63 @@
         <v>207</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A137" s="24"/>
       <c r="B137" s="25"/>
       <c r="C137" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="24"/>
       <c r="B138" s="25"/>
       <c r="C138" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="20">
         <v>254</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8764,203 +8764,203 @@
         <v>261</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E140" s="21" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="24"/>
       <c r="B141" s="25"/>
       <c r="C141" s="20" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A142" s="24"/>
       <c r="B142" s="25"/>
       <c r="C142" s="20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="20">
         <v>305</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="20">
         <v>326</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="20">
         <v>360</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="20">
         <v>386</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="20">
         <v>391</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="24"/>
       <c r="B148" s="25"/>
       <c r="C148" s="20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F148" s="22" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A149" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="20">
         <v>413</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A150" s="24"/>
       <c r="B150" s="25"/>
       <c r="C150" s="20" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F150" s="22" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A151" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="20">
         <v>435</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8972,259 +8972,259 @@
         <v>448</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A153" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="20">
         <v>457</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A154" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="20">
         <v>466</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="20">
         <v>471</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="20">
         <v>491</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E156" s="21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A157" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="20">
         <v>497</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A158" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="20">
         <v>503</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A159" s="24"/>
       <c r="B159" s="25"/>
       <c r="C159" s="20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E159" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="20">
         <v>559</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E160" s="21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="20">
         <v>564</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A162" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="20">
         <v>576</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E162" s="21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="20">
         <v>585</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E163" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A164" s="24"/>
       <c r="B164" s="25"/>
       <c r="C164" s="20" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F164" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A165" s="24"/>
       <c r="B165" s="25"/>
       <c r="C165" s="20" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F165" s="22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A166" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="20">
         <v>670</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -9234,13 +9234,13 @@
         <v>673</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9252,13 +9252,13 @@
         <v>691</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9268,13 +9268,13 @@
         <v>694</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9284,31 +9284,31 @@
         <v>697</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E170" s="21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="20">
         <v>707</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E171" s="21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9318,13 +9318,13 @@
         <v>710</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F172" s="22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9334,29 +9334,29 @@
         <v>713</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F173" s="22" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="24"/>
       <c r="B174" s="20"/>
       <c r="C174" s="20" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E174" s="21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F174" s="22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -9366,65 +9366,65 @@
         <v>737</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E175" s="21" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F175" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A176" s="24"/>
       <c r="B176" s="25"/>
       <c r="C176" s="20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="26"/>
       <c r="B177" s="27"/>
       <c r="C177" s="28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F177" s="30" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A178" s="35" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C178" s="16">
         <v>28</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E178" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9436,29 +9436,29 @@
         <v>42</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A180" s="24"/>
       <c r="B180" s="25"/>
       <c r="C180" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F180" s="22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -9470,13 +9470,13 @@
         <v>82</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9486,13 +9486,13 @@
         <v>85</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -9502,13 +9502,13 @@
         <v>88</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E183" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9518,13 +9518,13 @@
         <v>91</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E184" s="21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -9534,13 +9534,13 @@
         <v>100</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E185" s="21" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9550,13 +9550,13 @@
         <v>103</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E186" s="21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9566,13 +9566,13 @@
         <v>107</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9582,13 +9582,13 @@
         <v>110</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9598,13 +9598,13 @@
         <v>123</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E189" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9614,51 +9614,51 @@
         <v>132</v>
       </c>
       <c r="D190" s="29" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F190" s="30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A191" s="35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C191" s="16">
         <v>8</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E191" s="17" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="20">
         <v>13</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E192" s="21" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -9668,13 +9668,13 @@
         <v>16</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F193" s="22" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -9686,13 +9686,13 @@
         <v>23</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F194" s="22" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9702,13 +9702,13 @@
         <v>67</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F195" s="22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9718,31 +9718,31 @@
         <v>70</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E196" s="21" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="23" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="20">
         <v>98</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E197" s="21" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F197" s="22" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9754,13 +9754,13 @@
         <v>114</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E198" s="21" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F198" s="22" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -9772,13 +9772,13 @@
         <v>129</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E199" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F199" s="22" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9788,13 +9788,13 @@
         <v>155</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E200" s="21" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9804,49 +9804,49 @@
         <v>158</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E201" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F201" s="22" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="20">
         <v>182</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E202" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F202" s="22" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="20">
         <v>188</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E203" s="21" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -9858,13 +9858,13 @@
         <v>198</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9876,13 +9876,13 @@
         <v>212</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E205" s="21" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -9894,13 +9894,13 @@
         <v>221</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E206" s="21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F206" s="22" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9910,13 +9910,13 @@
         <v>229</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E207" s="21" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F207" s="22" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -9926,13 +9926,13 @@
         <v>232</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9942,13 +9942,13 @@
         <v>235</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9958,13 +9958,13 @@
         <v>238</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F210" s="22" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9974,13 +9974,13 @@
         <v>241</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E211" s="21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F211" s="22" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9990,13 +9990,13 @@
         <v>244</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F212" s="22" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -10006,31 +10006,31 @@
         <v>259</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E213" s="21" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F213" s="22" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="20">
         <v>286</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F214" s="22" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -10042,13 +10042,13 @@
         <v>302</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10060,13 +10060,13 @@
         <v>310</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E216" s="21" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F216" s="22" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -10078,13 +10078,13 @@
         <v>328</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E217" s="21" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F217" s="22" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -10094,13 +10094,13 @@
         <v>359</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F218" s="22" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10110,131 +10110,131 @@
         <v>394</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E219" s="21" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F219" s="22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="20">
         <v>420</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E220" s="21" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F220" s="22" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="36"/>
       <c r="B221" s="28"/>
       <c r="C221" s="28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D221" s="29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E221" s="29" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F221" s="30" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="B222" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="D222" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="B222" s="32" t="s">
-        <v>740</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>742</v>
-      </c>
-      <c r="D222" s="17" t="s">
-        <v>741</v>
-      </c>
       <c r="E222" s="17" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F222" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A223" s="24"/>
       <c r="B223" s="25"/>
       <c r="C223" s="20" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F223" s="22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A224" s="24"/>
       <c r="B224" s="25"/>
       <c r="C224" s="20" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E224" s="21" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F224" s="22" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="24"/>
       <c r="B225" s="25"/>
       <c r="C225" s="20" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E225" s="21" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F225" s="22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="39"/>
       <c r="B226" s="40"/>
       <c r="C226" s="20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E226" s="21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F226" s="22" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10244,13 +10244,13 @@
         <v>109</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E227" s="21" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F227" s="22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10260,31 +10260,31 @@
         <v>113</v>
       </c>
       <c r="D228" s="38" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E228" s="38" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F228" s="42" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C229" s="20">
         <v>19</v>
       </c>
       <c r="D229" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E229" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="E229" s="21" t="s">
+      <c r="F229" s="22" t="s">
         <v>768</v>
-      </c>
-      <c r="F229" s="22" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10294,79 +10294,79 @@
         <v>23</v>
       </c>
       <c r="D230" s="38" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E230" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="F230" s="42" t="s">
         <v>769</v>
-      </c>
-      <c r="F230" s="42" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="39"/>
       <c r="B231" s="40" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F231" s="22" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A232" s="39"/>
       <c r="B232" s="40"/>
       <c r="C232" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F232" s="22" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A233" s="39"/>
       <c r="B233" s="40"/>
       <c r="C233" s="20" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F233" s="22" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A234" s="24"/>
       <c r="B234" s="20"/>
       <c r="C234" s="20" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E234" s="21" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F234" s="22" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10376,95 +10376,95 @@
         <v>59</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E235" s="21" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F235" s="22" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A236" s="24"/>
       <c r="B236" s="25"/>
       <c r="C236" s="20" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F236" s="22" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A237" s="24"/>
       <c r="B237" s="25"/>
       <c r="C237" s="20" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E237" s="21" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F237" s="22" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A238" s="24"/>
       <c r="B238" s="25"/>
       <c r="C238" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E238" s="21" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F238" s="22" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="24"/>
       <c r="B239" s="25"/>
       <c r="C239" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E239" s="21" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F239" s="22" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="23" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="20">
         <v>130</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E240" s="21" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F240" s="22" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -10474,13 +10474,13 @@
         <v>133</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E241" s="21" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F241" s="22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10490,51 +10490,51 @@
         <v>136</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E242" s="29" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F242" s="30" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="35" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B243" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C243" s="16">
         <v>19</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E243" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F243" s="18" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="23" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="20">
         <v>22</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E244" s="21" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F244" s="22" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -10544,13 +10544,13 @@
         <v>25</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F245" s="22" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -10560,31 +10560,31 @@
         <v>28</v>
       </c>
       <c r="D246" s="38" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E246" s="38" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F246" s="42" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C247" s="20">
         <v>25</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E247" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F247" s="22" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10594,31 +10594,31 @@
         <v>28</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E248" s="21" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F248" s="22" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A249" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="20">
         <v>37</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E249" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F249" s="22" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10628,13 +10628,13 @@
         <v>40</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E250" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F250" s="22" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10644,31 +10644,31 @@
         <v>43</v>
       </c>
       <c r="D251" s="38" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E251" s="38" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F251" s="42" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C252" s="20">
         <v>11</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E252" s="21" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F252" s="22" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10678,33 +10678,33 @@
         <v>14</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E253" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="F253" s="30" t="s">
         <v>849</v>
-      </c>
-      <c r="F253" s="30" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="31" t="s">
+        <v>851</v>
+      </c>
+      <c r="B254" s="32" t="s">
+        <v>852</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="D254" s="17" t="s">
         <v>853</v>
       </c>
-      <c r="B254" s="32" t="s">
-        <v>854</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>856</v>
-      </c>
-      <c r="D254" s="17" t="s">
-        <v>855</v>
-      </c>
       <c r="E254" s="17" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F254" s="18" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -10716,13 +10716,13 @@
         <v>53</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E255" s="21" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F255" s="22" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -10732,13 +10732,13 @@
         <v>75</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E256" s="21" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F256" s="22" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -10748,45 +10748,45 @@
         <v>78</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E257" s="21" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F257" s="22" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="24"/>
       <c r="B258" s="25"/>
       <c r="C258" s="20" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E258" s="21" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F258" s="22" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="24"/>
       <c r="B259" s="25"/>
       <c r="C259" s="20" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E259" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F259" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -10798,29 +10798,29 @@
         <v>149</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E260" s="21" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F260" s="22" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="24"/>
       <c r="B261" s="25"/>
       <c r="C261" s="20" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F261" s="22" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10832,201 +10832,201 @@
         <v>178</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F262" s="22" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="26"/>
       <c r="B263" s="27"/>
       <c r="C263" s="28" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D263" s="29" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E263" s="29" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F263" s="30" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="35" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C264" s="16">
         <v>59</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E264" s="17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="24"/>
       <c r="B265" s="25"/>
       <c r="C265" s="20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F265" s="22" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A266" s="24"/>
       <c r="B266" s="25"/>
       <c r="C266" s="20" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A267" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B267" s="20"/>
       <c r="C267" s="20">
         <v>98</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E267" s="21" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F267" s="22" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="24"/>
       <c r="B268" s="25"/>
       <c r="C268" s="20" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F268" s="22" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="20">
         <v>123</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E269" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F269" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A270" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B270" s="20"/>
       <c r="C270" s="20">
         <v>132</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E270" s="21" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F270" s="22" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="24"/>
       <c r="B271" s="25"/>
       <c r="C271" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E271" s="21" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F271" s="22" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A272" s="24"/>
       <c r="B272" s="25"/>
       <c r="C272" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E272" s="21" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F272" s="22" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A273" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B273" s="20"/>
       <c r="C273" s="20">
         <v>182</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E273" s="21" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F273" s="22" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11036,45 +11036,45 @@
         <v>185</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F274" s="22" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="24"/>
       <c r="B275" s="25"/>
       <c r="C275" s="20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F275" s="22" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="24"/>
       <c r="B276" s="25"/>
       <c r="C276" s="20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E276" s="21" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F276" s="22" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11084,175 +11084,175 @@
         <v>275</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E277" s="21" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A278" s="24"/>
       <c r="B278" s="25"/>
       <c r="C278" s="20" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E278" s="21" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F278" s="22" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="24"/>
       <c r="B279" s="25"/>
       <c r="C279" s="20" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E279" s="21" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F279" s="22" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A280" s="24"/>
       <c r="B280" s="25"/>
       <c r="C280" s="20" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E280" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F280" s="22" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A281" s="24"/>
       <c r="B281" s="25"/>
       <c r="C281" s="20" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F281" s="22" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A282" s="24"/>
       <c r="B282" s="25"/>
       <c r="C282" s="20" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E282" s="21" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F282" s="22" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A283" s="24"/>
       <c r="B283" s="25"/>
       <c r="C283" s="20" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F283" s="22" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="24"/>
       <c r="B284" s="25"/>
       <c r="C284" s="20" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F284" s="22" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A285" s="24"/>
       <c r="B285" s="25"/>
       <c r="C285" s="20" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F285" s="22" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="24"/>
       <c r="B286" s="25"/>
       <c r="C286" s="20" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F286" s="22" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A287" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="20">
         <v>429</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F287" s="22" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -11262,13 +11262,13 @@
         <v>432</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E288" s="21" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F288" s="22" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11278,49 +11278,49 @@
         <v>435</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F289" s="22" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B290" s="20"/>
       <c r="C290" s="20">
         <v>445</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E290" s="21" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A291" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="20">
         <v>456</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E291" s="21" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F291" s="22" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11330,13 +11330,13 @@
         <v>467</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F292" s="22" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11346,13 +11346,13 @@
         <v>470</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F293" s="22" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -11362,13 +11362,13 @@
         <v>473</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F294" s="22" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11378,13 +11378,13 @@
         <v>477</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F295" s="22" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11394,355 +11394,355 @@
         <v>480</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F296" s="22" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="24"/>
       <c r="B297" s="25"/>
       <c r="C297" s="20" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E297" s="21" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F297" s="22" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A298" s="24"/>
       <c r="B298" s="25"/>
       <c r="C298" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E298" s="21" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F298" s="22" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="20">
         <v>535</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E299" s="21" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B300" s="20"/>
       <c r="C300" s="20">
         <v>544</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E300" s="21" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F300" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="24"/>
       <c r="B301" s="25"/>
       <c r="C301" s="20" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E301" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F301" s="22" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A302" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B302" s="20"/>
       <c r="C302" s="20">
         <v>569</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F302" s="22" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A303" s="24"/>
       <c r="B303" s="25"/>
       <c r="C303" s="20" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E303" s="21" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A304" s="24"/>
       <c r="B304" s="25"/>
       <c r="C304" s="20" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E304" s="21" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="26"/>
       <c r="B305" s="27"/>
       <c r="C305" s="28" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D305" s="29" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E305" s="29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F305" s="30" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" s="31" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B306" s="32" t="s">
         <v>1032</v>
       </c>
-      <c r="B306" s="32" t="s">
-        <v>1034</v>
-      </c>
       <c r="C306" s="16" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E306" s="17" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F306" s="18" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A307" s="24"/>
       <c r="B307" s="25"/>
       <c r="C307" s="20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F307" s="22" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A308" s="24"/>
       <c r="B308" s="25"/>
       <c r="C308" s="20" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F308" s="22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A309" s="45"/>
       <c r="B309" s="46"/>
       <c r="C309" s="37" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D309" s="38" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E309" s="38" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F309" s="42" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A310" s="47" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B310" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C310" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="D310" s="21" t="s">
         <v>1050</v>
       </c>
-      <c r="B310" s="25" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C310" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="D310" s="21" t="s">
+      <c r="E310" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="E310" s="21" t="s">
+      <c r="F310" s="22" t="s">
         <v>1054</v>
-      </c>
-      <c r="F310" s="22" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="45"/>
       <c r="B311" s="46"/>
       <c r="C311" s="37" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D311" s="38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E311" s="38" t="s">
         <v>1053</v>
       </c>
-      <c r="E311" s="38" t="s">
+      <c r="F311" s="42" t="s">
         <v>1055</v>
-      </c>
-      <c r="F311" s="42" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A312" s="47" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B312" s="25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C312" s="20" t="s">
         <v>1060</v>
       </c>
-      <c r="C312" s="20" t="s">
+      <c r="D312" s="21" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E312" s="21" t="s">
         <v>1062</v>
       </c>
-      <c r="D312" s="21" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E312" s="21" t="s">
+      <c r="F312" s="22" t="s">
         <v>1064</v>
-      </c>
-      <c r="F312" s="22" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="26"/>
       <c r="B313" s="27"/>
       <c r="C313" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D313" s="29" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E313" s="29" t="s">
         <v>1063</v>
       </c>
-      <c r="D313" s="29" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E313" s="29" t="s">
+      <c r="F313" s="30" t="s">
         <v>1065</v>
-      </c>
-      <c r="F313" s="30" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="31" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B314" s="32"/>
       <c r="C314" s="16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D314" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E314" s="17" t="s">
         <v>1071</v>
       </c>
-      <c r="D314" s="17" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E314" s="17" t="s">
+      <c r="F314" s="18" t="s">
         <v>1073</v>
-      </c>
-      <c r="F314" s="18" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A315" s="45"/>
       <c r="B315" s="46"/>
       <c r="C315" s="37" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D315" s="38" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E315" s="38" t="s">
         <v>1072</v>
       </c>
-      <c r="D315" s="38" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E315" s="38" t="s">
+      <c r="F315" s="42" t="s">
         <v>1074</v>
-      </c>
-      <c r="F315" s="42" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="47" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B316" s="25"/>
       <c r="C316" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E316" s="21" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F316" s="22" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -11752,13 +11752,13 @@
         <v>63</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E317" s="21" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F317" s="22" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -11768,13 +11768,13 @@
         <v>67</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E318" s="21" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F318" s="22" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -11784,67 +11784,67 @@
         <v>71</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E319" s="21" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F319" s="22" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="26"/>
       <c r="B320" s="27"/>
       <c r="C320" s="28" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D320" s="29" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E320" s="29" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F320" s="30" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A321" s="48" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B321" s="16" t="s">
         <v>1095</v>
-      </c>
-      <c r="B321" s="16" t="s">
-        <v>1097</v>
       </c>
       <c r="C321" s="16">
         <v>11</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E321" s="17" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F321" s="18" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A322" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="20">
         <v>21</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E322" s="21" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F322" s="22" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -11854,13 +11854,13 @@
         <v>24</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E323" s="21" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F323" s="22" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11870,85 +11870,85 @@
         <v>27</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E324" s="21" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F324" s="22" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="20">
         <v>36</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E325" s="21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F325" s="22" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A326" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="20">
         <v>41</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E326" s="21" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F326" s="22" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A327" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="20">
         <v>46</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E327" s="21" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F327" s="22" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="20">
         <v>51</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E328" s="21" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F328" s="22" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11958,13 +11958,13 @@
         <v>54</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E329" s="21" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F329" s="22" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11976,31 +11976,31 @@
         <v>60</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E330" s="21" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F330" s="22" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A331" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B331" s="20"/>
       <c r="C331" s="20">
         <v>107</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E331" s="21" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F331" s="22" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12010,13 +12010,13 @@
         <v>110</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E332" s="21" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F332" s="22" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12028,31 +12028,31 @@
         <v>119</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E333" s="21" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F333" s="22" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A334" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="20">
         <v>122</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E334" s="21" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F334" s="22" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12062,13 +12062,13 @@
         <v>135</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E335" s="21" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F335" s="22" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -12080,13 +12080,13 @@
         <v>140</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E336" s="21" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F336" s="22" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12096,13 +12096,13 @@
         <v>143</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E337" s="21" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F337" s="22" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12112,31 +12112,31 @@
         <v>146</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F338" s="22" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A339" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B339" s="20"/>
       <c r="C339" s="20">
         <v>156</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E339" s="21" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F339" s="22" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -12146,13 +12146,13 @@
         <v>159</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E340" s="21" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F340" s="22" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12164,31 +12164,31 @@
         <v>164</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E341" s="21" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F341" s="22" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A342" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B342" s="20"/>
       <c r="C342" s="20">
         <v>169</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E342" s="21" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F342" s="22" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12200,13 +12200,13 @@
         <v>186</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E343" s="21" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F343" s="22" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12216,13 +12216,13 @@
         <v>194</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E344" s="21" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F344" s="22" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -12232,13 +12232,13 @@
         <v>206</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E345" s="21" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F345" s="22" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12248,13 +12248,13 @@
         <v>214</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E346" s="21" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F346" s="22" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12264,181 +12264,181 @@
         <v>237</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E347" s="21" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F347" s="22" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B348" s="28"/>
       <c r="C348" s="28">
         <v>254</v>
       </c>
       <c r="D348" s="29" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E348" s="29" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F348" s="30" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A349" s="31" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B349" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D349" s="17" t="s">
         <v>1178</v>
       </c>
-      <c r="B349" s="32" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C349" s="16" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D349" s="17" t="s">
-        <v>1180</v>
-      </c>
       <c r="E349" s="17" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F349" s="18" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="24"/>
       <c r="B350" s="25"/>
       <c r="C350" s="20" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E350" s="21" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F350" s="22" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A351" s="24"/>
       <c r="B351" s="25"/>
       <c r="C351" s="20" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E351" s="21" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F351" s="22" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A352" s="24"/>
       <c r="B352" s="25"/>
       <c r="C352" s="20" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E352" s="21" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F352" s="22" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="24"/>
       <c r="B353" s="25"/>
       <c r="C353" s="20" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D353" s="21" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E353" s="21" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A354" s="24"/>
       <c r="B354" s="25"/>
       <c r="C354" s="20" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D354" s="21" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E354" s="21" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F354" s="22" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="24"/>
       <c r="B355" s="25"/>
       <c r="C355" s="20" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D355" s="21" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E355" s="21" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F355" s="22" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="24"/>
       <c r="B356" s="25"/>
       <c r="C356" s="20" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E356" s="21" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F356" s="22" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="20">
         <v>319</v>
       </c>
       <c r="D357" s="21" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E357" s="21" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F357" s="22" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -12448,47 +12448,47 @@
         <v>322</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E358" s="21" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F358" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A359" s="24"/>
       <c r="B359" s="25"/>
       <c r="C359" s="20" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E359" s="21" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F359" s="22" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A360" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="20">
         <v>387</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E360" s="21" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F360" s="22" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12498,13 +12498,13 @@
         <v>390</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E361" s="21" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F361" s="22" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12514,13 +12514,13 @@
         <v>393</v>
       </c>
       <c r="D362" s="21" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E362" s="21" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F362" s="22" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -12530,29 +12530,29 @@
         <v>396</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E363" s="21" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F363" s="22" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A364" s="24"/>
       <c r="B364" s="20"/>
       <c r="C364" s="20" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E364" s="21" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F364" s="22" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12562,47 +12562,47 @@
         <v>429</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E365" s="21" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F365" s="22" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="24"/>
       <c r="B366" s="25"/>
       <c r="C366" s="20" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E366" s="21" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F366" s="22" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="20">
         <v>483</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E367" s="21" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F367" s="22" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -12612,13 +12612,13 @@
         <v>486</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E368" s="21" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F368" s="22" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12628,85 +12628,85 @@
         <v>490</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E369" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F369" s="22" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="24"/>
       <c r="B370" s="25"/>
       <c r="C370" s="20" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E370" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F370" s="22" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="43" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B371" s="37"/>
       <c r="C371" s="37">
         <v>535</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E371" s="38" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F371" s="42" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A372" s="50" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B372" s="51" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C372" s="20">
         <v>24</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E372" s="21" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F372" s="22" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A373" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="20">
         <v>27</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E373" s="21" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F373" s="22" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -12716,13 +12716,13 @@
         <v>43</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E374" s="21" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F374" s="22" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12732,13 +12732,13 @@
         <v>47</v>
       </c>
       <c r="D375" s="21" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E375" s="21" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F375" s="22" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12748,31 +12748,31 @@
         <v>51</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E376" s="21" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F376" s="22" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="20">
         <v>57</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E377" s="21" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F377" s="22" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12782,117 +12782,117 @@
         <v>60</v>
       </c>
       <c r="D378" s="29" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E378" s="29" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F378" s="30" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A379" s="35" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C379" s="16">
         <v>22</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E379" s="17" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F379" s="18" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="20">
         <v>25</v>
       </c>
       <c r="D380" s="21" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E380" s="21" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F380" s="22" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="24"/>
       <c r="B381" s="25"/>
       <c r="C381" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="E381" s="21" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F381" s="22" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A382" s="24"/>
       <c r="B382" s="25"/>
       <c r="C382" s="20" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="E382" s="21" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F382" s="22" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="20">
         <v>67</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E383" s="21" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F383" s="22" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="24"/>
       <c r="B384" s="25"/>
       <c r="C384" s="20" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D384" s="21" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E384" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F384" s="22" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -12902,13 +12902,13 @@
         <v>153</v>
       </c>
       <c r="D385" s="21" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="E385" s="21" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F385" s="22" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12920,13 +12920,13 @@
         <v>184</v>
       </c>
       <c r="D386" s="21" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E386" s="21" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F386" s="22" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12936,47 +12936,47 @@
         <v>187</v>
       </c>
       <c r="D387" s="21" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E387" s="21" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F387" s="22" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A388" s="24"/>
       <c r="B388" s="25"/>
       <c r="C388" s="20" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D388" s="21" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E388" s="21" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F388" s="22" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="20">
         <v>310</v>
       </c>
       <c r="D389" s="21" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E389" s="21" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F389" s="22" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -12988,13 +12988,13 @@
         <v>315</v>
       </c>
       <c r="D390" s="21" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E390" s="21" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F390" s="22" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13004,13 +13004,13 @@
         <v>318</v>
       </c>
       <c r="D391" s="21" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E391" s="21" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F391" s="22" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13020,13 +13020,13 @@
         <v>321</v>
       </c>
       <c r="D392" s="21" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E392" s="21" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F392" s="22" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13036,13 +13036,13 @@
         <v>324</v>
       </c>
       <c r="D393" s="21" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E393" s="21" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F393" s="22" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13052,13 +13052,13 @@
         <v>327</v>
       </c>
       <c r="D394" s="21" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E394" s="21" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F394" s="22" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -13068,13 +13068,13 @@
         <v>330</v>
       </c>
       <c r="D395" s="21" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E395" s="21" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F395" s="22" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13084,13 +13084,13 @@
         <v>333</v>
       </c>
       <c r="D396" s="21" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E396" s="21" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F396" s="22" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13100,13 +13100,13 @@
         <v>336</v>
       </c>
       <c r="D397" s="21" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E397" s="21" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F397" s="22" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13116,13 +13116,13 @@
         <v>339</v>
       </c>
       <c r="D398" s="21" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="E398" s="21" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F398" s="22" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13132,31 +13132,31 @@
         <v>342</v>
       </c>
       <c r="D399" s="21" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E399" s="21" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F399" s="22" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A400" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B400" s="20"/>
       <c r="C400" s="20">
         <v>347</v>
       </c>
       <c r="D400" s="21" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E400" s="21" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F400" s="22" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13166,13 +13166,13 @@
         <v>350</v>
       </c>
       <c r="D401" s="21" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E401" s="21" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="F401" s="22" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13182,13 +13182,13 @@
         <v>355</v>
       </c>
       <c r="D402" s="21" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E402" s="21" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F402" s="22" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13198,13 +13198,13 @@
         <v>358</v>
       </c>
       <c r="D403" s="21" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="E403" s="21" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F403" s="22" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -13214,93 +13214,93 @@
         <v>405</v>
       </c>
       <c r="D404" s="21" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E404" s="21" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F404" s="22" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="24"/>
       <c r="B405" s="25"/>
       <c r="C405" s="20" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D405" s="21" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E405" s="21" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="F405" s="22" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A406" s="24"/>
       <c r="B406" s="25"/>
       <c r="C406" s="20" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D406" s="21" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E406" s="21" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F406" s="22" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="24"/>
       <c r="B407" s="25"/>
       <c r="C407" s="20" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D407" s="21" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E407" s="21" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="F407" s="22" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="24"/>
       <c r="B408" s="25"/>
       <c r="C408" s="20" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D408" s="21" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E408" s="21" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F408" s="22" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="24"/>
       <c r="B409" s="25"/>
       <c r="C409" s="20" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D409" s="21" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E409" s="21" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F409" s="22" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13312,13 +13312,13 @@
         <v>560</v>
       </c>
       <c r="D410" s="21" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E410" s="21" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F410" s="22" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13328,13 +13328,13 @@
         <v>563</v>
       </c>
       <c r="D411" s="21" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="E411" s="21" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F411" s="22" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13344,13 +13344,13 @@
         <v>566</v>
       </c>
       <c r="D412" s="21" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E412" s="21" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="F412" s="22" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13360,13 +13360,13 @@
         <v>569</v>
       </c>
       <c r="D413" s="21" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="E413" s="21" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="F413" s="22" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13376,13 +13376,13 @@
         <v>572</v>
       </c>
       <c r="D414" s="21" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E414" s="21" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F414" s="22" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13392,13 +13392,13 @@
         <v>575</v>
       </c>
       <c r="D415" s="21" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E415" s="21" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="F415" s="22" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13408,13 +13408,13 @@
         <v>578</v>
       </c>
       <c r="D416" s="21" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E416" s="21" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F416" s="22" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13424,13 +13424,13 @@
         <v>581</v>
       </c>
       <c r="D417" s="21" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E417" s="21" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="F417" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -13440,13 +13440,13 @@
         <v>584</v>
       </c>
       <c r="D418" s="21" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="E418" s="21" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F418" s="22" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13456,61 +13456,61 @@
         <v>587</v>
       </c>
       <c r="D419" s="21" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E419" s="21" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F419" s="22" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A420" s="24"/>
       <c r="B420" s="25"/>
       <c r="C420" s="20" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D420" s="21" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E420" s="21" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F420" s="22" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A421" s="24"/>
       <c r="B421" s="25"/>
       <c r="C421" s="20" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D421" s="21" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E421" s="21" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F421" s="22" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="24"/>
       <c r="B422" s="20"/>
       <c r="C422" s="20" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="D422" s="21" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E422" s="21" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F422" s="22" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -13520,29 +13520,29 @@
         <v>640</v>
       </c>
       <c r="D423" s="21" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E423" s="21" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F423" s="22" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A424" s="24"/>
       <c r="B424" s="20"/>
       <c r="C424" s="20" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D424" s="21" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E424" s="21" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F424" s="22" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13552,45 +13552,45 @@
         <v>655</v>
       </c>
       <c r="D425" s="21" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E425" s="21" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F425" s="22" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="24"/>
       <c r="B426" s="25"/>
       <c r="C426" s="20" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D426" s="21" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E426" s="21" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F426" s="22" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="24"/>
       <c r="B427" s="25"/>
       <c r="C427" s="20" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D427" s="21" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E427" s="21" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="F427" s="22" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13602,61 +13602,61 @@
         <v>740</v>
       </c>
       <c r="D428" s="21" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E428" s="21" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F428" s="22" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="24"/>
       <c r="B429" s="25"/>
       <c r="C429" s="20" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D429" s="21" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E429" s="21" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F429" s="22" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A430" s="24"/>
       <c r="B430" s="25"/>
       <c r="C430" s="20" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D430" s="21" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E430" s="21" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="F430" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A431" s="24"/>
       <c r="B431" s="25"/>
       <c r="C431" s="20" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D431" s="21" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E431" s="21" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="F431" s="22" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13668,13 +13668,13 @@
         <v>820</v>
       </c>
       <c r="D432" s="21" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E432" s="21" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F432" s="22" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13684,13 +13684,13 @@
         <v>823</v>
       </c>
       <c r="D433" s="21" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E433" s="21" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F433" s="22" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13700,13 +13700,13 @@
         <v>826</v>
       </c>
       <c r="D434" s="21" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E434" s="21" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="F434" s="22" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -13716,13 +13716,13 @@
         <v>829</v>
       </c>
       <c r="D435" s="21" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E435" s="21" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="F435" s="22" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13732,29 +13732,29 @@
         <v>839</v>
       </c>
       <c r="D436" s="21" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E436" s="21" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="F436" s="22" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="24"/>
       <c r="B437" s="25"/>
       <c r="C437" s="20" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D437" s="21" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E437" s="21" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F437" s="22" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13766,135 +13766,135 @@
         <v>874</v>
       </c>
       <c r="D438" s="21" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E438" s="21" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="F438" s="22" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A439" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="20">
         <v>882</v>
       </c>
       <c r="D439" s="21" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E439" s="21" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F439" s="22" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="24"/>
       <c r="B440" s="25"/>
       <c r="C440" s="20" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D440" s="21" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E440" s="21" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="F440" s="22" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="20">
         <v>956</v>
       </c>
       <c r="D441" s="21" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E441" s="21" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F441" s="22" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="20">
         <v>961</v>
       </c>
       <c r="D442" s="21" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E442" s="21" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F442" s="22" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="20">
         <v>966</v>
       </c>
       <c r="D443" s="21" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="E443" s="21" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F443" s="22" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="24"/>
       <c r="B444" s="25"/>
       <c r="C444" s="20" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D444" s="21" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E444" s="21" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F444" s="22" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A445" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="20">
         <v>993</v>
       </c>
       <c r="D445" s="21" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="E445" s="21" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F445" s="22" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13904,31 +13904,31 @@
         <v>996</v>
       </c>
       <c r="D446" s="21" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E446" s="21" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F446" s="22" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A447" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="20">
         <v>1001</v>
       </c>
       <c r="D447" s="21" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E447" s="21" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F447" s="22" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -13940,31 +13940,31 @@
         <v>1010</v>
       </c>
       <c r="D448" s="21" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E448" s="21" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="F448" s="22" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A449" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="20">
         <v>1015</v>
       </c>
       <c r="D449" s="21" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E449" s="21" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F449" s="22" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13974,13 +13974,13 @@
         <v>1018</v>
       </c>
       <c r="D450" s="21" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E450" s="21" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="F450" s="22" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -13990,13 +13990,13 @@
         <v>1021</v>
       </c>
       <c r="D451" s="21" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E451" s="21" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F451" s="22" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -14006,13 +14006,13 @@
         <v>1030</v>
       </c>
       <c r="D452" s="21" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E452" s="21" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="F452" s="22" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14022,45 +14022,45 @@
         <v>1035</v>
       </c>
       <c r="D453" s="21" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E453" s="21" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="F453" s="22" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="24"/>
       <c r="B454" s="25"/>
       <c r="C454" s="20" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D454" s="21" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E454" s="21" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="F454" s="22" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A455" s="24"/>
       <c r="B455" s="25"/>
       <c r="C455" s="20" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D455" s="21" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E455" s="21" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F455" s="22" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14072,13 +14072,13 @@
         <v>1106</v>
       </c>
       <c r="D456" s="21" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E456" s="21" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F456" s="22" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14088,13 +14088,13 @@
         <v>1109</v>
       </c>
       <c r="D457" s="21" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E457" s="21" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="F457" s="22" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -14104,69 +14104,69 @@
         <v>1131</v>
       </c>
       <c r="D458" s="29" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E458" s="29" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="F458" s="30" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A459" s="35" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C459" s="16">
         <v>20</v>
       </c>
       <c r="D459" s="17" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E459" s="17" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="F459" s="18" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="20">
         <v>34</v>
       </c>
       <c r="D460" s="21" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E460" s="21" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="F460" s="22" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A461" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="20">
         <v>42</v>
       </c>
       <c r="D461" s="21" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E461" s="21" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="F461" s="22" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14176,13 +14176,13 @@
         <v>45</v>
       </c>
       <c r="D462" s="21" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E462" s="21" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="F462" s="22" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -14192,97 +14192,97 @@
         <v>48</v>
       </c>
       <c r="D463" s="21" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E463" s="21" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="F463" s="22" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="24"/>
       <c r="B464" s="25"/>
       <c r="C464" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D464" s="21" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E464" s="21" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="F464" s="22" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A465" s="24"/>
       <c r="B465" s="25"/>
       <c r="C465" s="20" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D465" s="21" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E465" s="21" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="F465" s="22" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A466" s="24"/>
       <c r="B466" s="25"/>
       <c r="C466" s="20" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D466" s="21" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E466" s="21" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="F466" s="22" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="20">
         <v>120</v>
       </c>
       <c r="D467" s="21" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E467" s="21" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="F467" s="22" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A468" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="20">
         <v>129</v>
       </c>
       <c r="D468" s="21" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E468" s="21" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F468" s="22" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14294,13 +14294,13 @@
         <v>134</v>
       </c>
       <c r="D469" s="21" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E469" s="21" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="F469" s="22" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14310,31 +14310,31 @@
         <v>137</v>
       </c>
       <c r="D470" s="21" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E470" s="21" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F470" s="22" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A471" s="23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="20">
         <v>145</v>
       </c>
       <c r="D471" s="21" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E471" s="21" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="F471" s="22" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14344,13 +14344,13 @@
         <v>148</v>
       </c>
       <c r="D472" s="21" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E472" s="21" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="F472" s="22" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14360,13 +14360,13 @@
         <v>151</v>
       </c>
       <c r="D473" s="21" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E473" s="21" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="F473" s="22" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14376,13 +14376,13 @@
         <v>154</v>
       </c>
       <c r="D474" s="21" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E474" s="21" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="F474" s="22" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14392,77 +14392,77 @@
         <v>157</v>
       </c>
       <c r="D475" s="21" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E475" s="21" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="F475" s="22" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A476" s="24"/>
       <c r="B476" s="25"/>
       <c r="C476" s="20" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D476" s="21" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E476" s="21" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="F476" s="22" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A477" s="24"/>
       <c r="B477" s="25"/>
       <c r="C477" s="20" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D477" s="21" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E477" s="21" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="F477" s="22" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="24"/>
       <c r="B478" s="25"/>
       <c r="C478" s="20" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D478" s="21" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E478" s="21" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="F478" s="22" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A479" s="24"/>
       <c r="B479" s="25"/>
       <c r="C479" s="20" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D479" s="21" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E479" s="21" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="F479" s="22" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14472,13 +14472,13 @@
         <v>249</v>
       </c>
       <c r="D480" s="21" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E480" s="21" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="F480" s="22" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14488,13 +14488,13 @@
         <v>253</v>
       </c>
       <c r="D481" s="21" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E481" s="21" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F481" s="22" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -14506,13 +14506,13 @@
         <v>268</v>
       </c>
       <c r="D482" s="21" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E482" s="21" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F482" s="22" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14522,45 +14522,45 @@
         <v>271</v>
       </c>
       <c r="D483" s="21" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E483" s="21" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="F483" s="22" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="24"/>
       <c r="B484" s="25"/>
       <c r="C484" s="20" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D484" s="21" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E484" s="21" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="F484" s="22" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A485" s="24"/>
       <c r="B485" s="25"/>
       <c r="C485" s="20" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D485" s="21" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E485" s="21" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F485" s="22" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14570,13 +14570,13 @@
         <v>329</v>
       </c>
       <c r="D486" s="21" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E486" s="21" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="F486" s="22" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -14586,13 +14586,13 @@
         <v>333</v>
       </c>
       <c r="D487" s="21" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E487" s="21" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F487" s="22" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -14602,13 +14602,13 @@
         <v>339</v>
       </c>
       <c r="D488" s="21" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E488" s="21" t="s">
-        <v>1620</v>
+        <v>1878</v>
       </c>
       <c r="F488" s="22" t="s">
-        <v>1660</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -14618,13 +14618,13 @@
         <v>343</v>
       </c>
       <c r="D489" s="21" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E489" s="21" t="s">
-        <v>1621</v>
+        <v>1879</v>
       </c>
       <c r="F489" s="22" t="s">
-        <v>1661</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -14636,13 +14636,13 @@
         <v>357</v>
       </c>
       <c r="D490" s="21" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E490" s="21" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="F490" s="22" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -14652,177 +14652,177 @@
         <v>360</v>
       </c>
       <c r="D491" s="21" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E491" s="21" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="F491" s="22" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="24"/>
       <c r="B492" s="25"/>
       <c r="C492" s="20" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D492" s="21" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E492" s="21" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="F492" s="22" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A493" s="24"/>
       <c r="B493" s="25"/>
       <c r="C493" s="20" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D493" s="21" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E493" s="21" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="F493" s="22" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="24"/>
       <c r="B494" s="25"/>
       <c r="C494" s="20" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D494" s="21" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E494" s="21" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="F494" s="22" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A495" s="24"/>
       <c r="B495" s="25"/>
       <c r="C495" s="20" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D495" s="21" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E495" s="21" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="F495" s="22" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="39"/>
       <c r="B496" s="40"/>
       <c r="C496" s="20" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D496" s="21" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E496" s="21" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="F496" s="22" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="39"/>
       <c r="B497" s="40"/>
       <c r="C497" s="20" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D497" s="21" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E497" s="21" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="F497" s="22" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="39"/>
       <c r="B498" s="40"/>
       <c r="C498" s="20" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D498" s="21" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E498" s="21" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="F498" s="22" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="24"/>
       <c r="B499" s="25"/>
       <c r="C499" s="20" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D499" s="21" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E499" s="21" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="F499" s="22" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="32.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A500" s="26"/>
       <c r="B500" s="27"/>
       <c r="C500" s="28" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D500" s="29" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E500" s="29" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="F500" s="30" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A501" s="31" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="B501" s="32" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D501" s="17" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="E501" s="17" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="F501" s="18" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -14834,13 +14834,13 @@
         <v>45</v>
       </c>
       <c r="D502" s="21" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="E502" s="21" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="F502" s="22" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -14850,13 +14850,13 @@
         <v>49</v>
       </c>
       <c r="D503" s="21" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="E503" s="21" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="F503" s="22" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -14866,13 +14866,13 @@
         <v>55</v>
       </c>
       <c r="D504" s="21" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="E504" s="21" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="F504" s="22" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -14882,45 +14882,45 @@
         <v>59</v>
       </c>
       <c r="D505" s="21" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="E505" s="21" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="F505" s="22" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="24"/>
       <c r="B506" s="25"/>
       <c r="C506" s="20" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D506" s="21" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="E506" s="21" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="F506" s="22" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A507" s="24"/>
       <c r="B507" s="25"/>
       <c r="C507" s="20" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="D507" s="21" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="E507" s="21" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="F507" s="22" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -14932,13 +14932,13 @@
         <v>108</v>
       </c>
       <c r="D508" s="21" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="E508" s="21" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="F508" s="22" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14948,13 +14948,13 @@
         <v>131</v>
       </c>
       <c r="D509" s="21" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="E509" s="21" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="F509" s="22" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -14964,45 +14964,45 @@
         <v>135</v>
       </c>
       <c r="D510" s="21" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="E510" s="21" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="F510" s="22" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="24"/>
       <c r="B511" s="25"/>
       <c r="C511" s="20" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D511" s="21" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="E511" s="21" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="F511" s="22" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A512" s="24"/>
       <c r="B512" s="25"/>
       <c r="C512" s="20" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D512" s="21" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="E512" s="21" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="F512" s="22" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15012,13 +15012,13 @@
         <v>179</v>
       </c>
       <c r="D513" s="21" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="E513" s="21" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="F513" s="22" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15028,29 +15028,29 @@
         <v>183</v>
       </c>
       <c r="D514" s="21" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="E514" s="21" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="F514" s="22" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A515" s="24"/>
       <c r="B515" s="25"/>
       <c r="C515" s="20" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="D515" s="21" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="E515" s="21" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="F515" s="22" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -15062,13 +15062,13 @@
         <v>203</v>
       </c>
       <c r="D516" s="21" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="E516" s="21" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="F516" s="22" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -15078,13 +15078,13 @@
         <v>211</v>
       </c>
       <c r="D517" s="21" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="E517" s="21" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="F517" s="22" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15094,13 +15094,13 @@
         <v>214</v>
       </c>
       <c r="D518" s="21" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="E518" s="21" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="F518" s="22" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -15110,13 +15110,13 @@
         <v>217</v>
       </c>
       <c r="D519" s="21" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="E519" s="21" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="F519" s="22" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15126,13 +15126,13 @@
         <v>225</v>
       </c>
       <c r="D520" s="21" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="E520" s="21" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="F520" s="22" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -15144,13 +15144,13 @@
         <v>239</v>
       </c>
       <c r="D521" s="21" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="E521" s="21" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="F521" s="22" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -15160,29 +15160,29 @@
         <v>242</v>
       </c>
       <c r="D522" s="21" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="E522" s="21" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="F522" s="22" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="24"/>
       <c r="B523" s="25"/>
       <c r="C523" s="20" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="D523" s="21" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="E523" s="21" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="F523" s="22" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -15194,13 +15194,13 @@
         <v>278</v>
       </c>
       <c r="D524" s="21" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="E524" s="21" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="F524" s="22" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -15210,29 +15210,29 @@
         <v>282</v>
       </c>
       <c r="D525" s="21" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="E525" s="21" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="F525" s="22" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="39"/>
       <c r="B526" s="40"/>
       <c r="C526" s="20" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="D526" s="21" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="E526" s="21" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="F526" s="22" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -15242,13 +15242,13 @@
         <v>307</v>
       </c>
       <c r="D527" s="21" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="E527" s="21" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="F527" s="22" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -15258,45 +15258,45 @@
         <v>311</v>
       </c>
       <c r="D528" s="21" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="E528" s="21" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="F528" s="22" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A529" s="39"/>
       <c r="B529" s="40"/>
       <c r="C529" s="20" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="D529" s="21" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="E529" s="21" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="F529" s="22" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="39"/>
       <c r="B530" s="40"/>
       <c r="C530" s="20" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="D530" s="21" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="E530" s="21" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="F530" s="22" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15308,13 +15308,13 @@
         <v>337</v>
       </c>
       <c r="D531" s="21" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="E531" s="21" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="F531" s="22" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -15324,13 +15324,13 @@
         <v>340</v>
       </c>
       <c r="D532" s="21" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="E532" s="21" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F532" s="22" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15340,29 +15340,29 @@
         <v>343</v>
       </c>
       <c r="D533" s="21" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="E533" s="21" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="F533" s="22" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="24"/>
       <c r="B534" s="25"/>
       <c r="C534" s="20" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="D534" s="21" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="E534" s="21" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="F534" s="22" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -15374,13 +15374,13 @@
         <v>371</v>
       </c>
       <c r="D535" s="21" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="E535" s="21" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="F535" s="22" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15390,29 +15390,29 @@
         <v>374</v>
       </c>
       <c r="D536" s="21" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="E536" s="21" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="F536" s="22" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="24"/>
       <c r="B537" s="25"/>
       <c r="C537" s="20" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="D537" s="21" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="E537" s="21" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="F537" s="22" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -15424,13 +15424,13 @@
         <v>395</v>
       </c>
       <c r="D538" s="21" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="E538" s="21" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="F538" s="22" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15440,13 +15440,13 @@
         <v>398</v>
       </c>
       <c r="D539" s="21" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="E539" s="21" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="F539" s="22" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -15456,13 +15456,13 @@
         <v>401</v>
       </c>
       <c r="D540" s="21" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="E540" s="21" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="F540" s="22" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -15472,13 +15472,13 @@
         <v>404</v>
       </c>
       <c r="D541" s="21" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="E541" s="21" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="F541" s="22" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15488,29 +15488,29 @@
         <v>407</v>
       </c>
       <c r="D542" s="21" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="E542" s="21" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="F542" s="22" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A543" s="24"/>
       <c r="B543" s="25"/>
       <c r="C543" s="20" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D543" s="21" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="E543" s="21" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="F543" s="22" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15522,13 +15522,13 @@
         <v>450</v>
       </c>
       <c r="D544" s="21" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="E544" s="21" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="F544" s="22" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15538,13 +15538,13 @@
         <v>453</v>
       </c>
       <c r="D545" s="21" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="E545" s="21" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="F545" s="22" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15554,29 +15554,29 @@
         <v>456</v>
       </c>
       <c r="D546" s="21" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="E546" s="21" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="F546" s="22" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="24"/>
       <c r="B547" s="25"/>
       <c r="C547" s="20" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="D547" s="21" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="E547" s="21" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="F547" s="22" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
@@ -15588,13 +15588,13 @@
         <v>481</v>
       </c>
       <c r="D548" s="21" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="E548" s="21" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="F548" s="22" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15604,13 +15604,13 @@
         <v>484</v>
       </c>
       <c r="D549" s="21" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="E549" s="21" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="F549" s="22" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15620,13 +15620,13 @@
         <v>487</v>
       </c>
       <c r="D550" s="21" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="E550" s="21" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="F550" s="22" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
@@ -15636,77 +15636,77 @@
         <v>494</v>
       </c>
       <c r="D551" s="21" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="E551" s="21" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="F551" s="22" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A552" s="24"/>
       <c r="B552" s="25"/>
       <c r="C552" s="20" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="D552" s="21" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="E552" s="21" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="F552" s="22" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="24"/>
       <c r="B553" s="25"/>
       <c r="C553" s="20" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="D553" s="21" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="E553" s="21" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="F553" s="22" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A554" s="24"/>
       <c r="B554" s="25"/>
       <c r="C554" s="20" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="D554" s="21" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="E554" s="21" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="F554" s="22" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A555" s="24"/>
       <c r="B555" s="25"/>
       <c r="C555" s="20" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="D555" s="21" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="E555" s="21" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="F555" s="22" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -15718,13 +15718,13 @@
         <v>713</v>
       </c>
       <c r="D556" s="21" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="E556" s="21" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="F556" s="22" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
@@ -15736,29 +15736,29 @@
         <v>730</v>
       </c>
       <c r="D557" s="21" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="E557" s="21" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="F557" s="22" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="24"/>
       <c r="B558" s="25"/>
       <c r="C558" s="20" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="D558" s="21" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="E558" s="21" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="F558" s="22" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -15770,29 +15770,29 @@
         <v>802</v>
       </c>
       <c r="D559" s="21" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="E559" s="21" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="F559" s="22" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A560" s="24"/>
       <c r="B560" s="25"/>
       <c r="C560" s="20" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="D560" s="21" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="E560" s="21" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="F560" s="22" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.3">
@@ -15804,13 +15804,13 @@
         <v>835</v>
       </c>
       <c r="D561" s="21" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="E561" s="21" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="F561" s="22" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -15820,29 +15820,29 @@
         <v>838</v>
       </c>
       <c r="D562" s="21" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="E562" s="21" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="F562" s="22" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="24"/>
       <c r="B563" s="25"/>
       <c r="C563" s="20" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="D563" s="21" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="E563" s="21" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="F563" s="22" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.3">
@@ -15854,13 +15854,13 @@
         <v>870</v>
       </c>
       <c r="D564" s="21" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="E564" s="21" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="F564" s="22" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15872,13 +15872,13 @@
         <v>879</v>
       </c>
       <c r="D565" s="29" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="E565" s="29" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="F565" s="30" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
     </row>
   </sheetData>
